--- a/raw_data/20200818_saline/20200818_Sensor3_Test_47.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_47.xlsx
@@ -1,493 +1,909 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E252D1-78CC-4C46-AE44-028F5E8F15C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>41960.752339</v>
+        <v>41960.752338999999</v>
       </c>
       <c r="B2" s="1">
-        <v>11.655765</v>
+        <v>11.655765000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1158.100000</v>
+        <v>1158.0999999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-242.303000</v>
+        <v>-242.303</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>41971.156423</v>
@@ -496,557 +912,557 @@
         <v>11.658655</v>
       </c>
       <c r="H2" s="1">
-        <v>1176.970000</v>
+        <v>1176.97</v>
       </c>
       <c r="I2" s="1">
-        <v>-205.003000</v>
+        <v>-205.00299999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>41981.633416</v>
+        <v>41981.633415999997</v>
       </c>
       <c r="L2" s="1">
         <v>11.661565</v>
       </c>
       <c r="M2" s="1">
-        <v>1202.120000</v>
+        <v>1202.1199999999999</v>
       </c>
       <c r="N2" s="1">
-        <v>-143.975000</v>
+        <v>-143.97499999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>41992.478441</v>
+        <v>41992.478440999999</v>
       </c>
       <c r="Q2" s="1">
         <v>11.664577</v>
       </c>
       <c r="R2" s="1">
-        <v>1209.940000</v>
+        <v>1209.94</v>
       </c>
       <c r="S2" s="1">
-        <v>-123.890000</v>
+        <v>-123.89</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>42003.004045</v>
+        <v>42003.004045000001</v>
       </c>
       <c r="V2" s="1">
         <v>11.667501</v>
       </c>
       <c r="W2" s="1">
-        <v>1217.350000</v>
+        <v>1217.3499999999999</v>
       </c>
       <c r="X2" s="1">
-        <v>-105.046000</v>
+        <v>-105.04600000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>42013.449821</v>
+        <v>42013.449821000002</v>
       </c>
       <c r="AA2" s="1">
         <v>11.670403</v>
       </c>
       <c r="AB2" s="1">
-        <v>1225.560000</v>
+        <v>1225.56</v>
       </c>
       <c r="AC2" s="1">
-        <v>-89.582100</v>
+        <v>-89.582099999999997</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>42024.008625</v>
+        <v>42024.008625000002</v>
       </c>
       <c r="AF2" s="1">
-        <v>11.673336</v>
+        <v>11.673336000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>1230.610000</v>
+        <v>1230.6099999999999</v>
       </c>
       <c r="AH2" s="1">
-        <v>-85.697500</v>
+        <v>-85.697500000000005</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>42034.504465</v>
+        <v>42034.504464999998</v>
       </c>
       <c r="AK2" s="1">
-        <v>11.676251</v>
+        <v>11.676251000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>1238.080000</v>
+        <v>1238.08</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.583700</v>
+        <v>-89.583699999999993</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>42045.397603</v>
+        <v>42045.397602999998</v>
       </c>
       <c r="AP2" s="1">
-        <v>11.679277</v>
+        <v>11.679277000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1246.180000</v>
+        <v>1246.18</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.768000</v>
+        <v>-101.768</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>42056.134502</v>
+        <v>42056.134502000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>11.682260</v>
+        <v>11.682259999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>1256.210000</v>
+        <v>1256.21</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.418000</v>
+        <v>-121.41800000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>42066.961174</v>
+        <v>42066.961173999996</v>
       </c>
       <c r="AZ2" s="1">
         <v>11.685267</v>
       </c>
       <c r="BA2" s="1">
-        <v>1264.700000</v>
+        <v>1264.7</v>
       </c>
       <c r="BB2" s="1">
-        <v>-139.127000</v>
+        <v>-139.12700000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>42077.550264</v>
+        <v>42077.550263999998</v>
       </c>
       <c r="BE2" s="1">
-        <v>11.688208</v>
+        <v>11.688207999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1304.720000</v>
+        <v>1304.72</v>
       </c>
       <c r="BG2" s="1">
-        <v>-222.116000</v>
+        <v>-222.11600000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>42088.174076</v>
+        <v>42088.174076000003</v>
       </c>
       <c r="BJ2" s="1">
-        <v>11.691159</v>
+        <v>11.691159000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1374.250000</v>
+        <v>1374.25</v>
       </c>
       <c r="BL2" s="1">
-        <v>-360.798000</v>
+        <v>-360.798</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>42099.271106</v>
       </c>
       <c r="BO2" s="1">
-        <v>11.694242</v>
+        <v>11.694241999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1488.860000</v>
+        <v>1488.86</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-587.338000</v>
+        <v>-587.33799999999997</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>42110.318957</v>
+        <v>42110.318957000003</v>
       </c>
       <c r="BT2" s="1">
-        <v>11.697311</v>
+        <v>11.697310999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1622.050000</v>
+        <v>1622.05</v>
       </c>
       <c r="BV2" s="1">
-        <v>-843.594000</v>
+        <v>-843.59400000000005</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>42120.712219</v>
+        <v>42120.712219000001</v>
       </c>
       <c r="BY2" s="1">
         <v>11.700198</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1775.250000</v>
+        <v>1775.25</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1123.230000</v>
+        <v>-1123.23</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>42131.592865</v>
+        <v>42131.592864999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>11.703220</v>
+        <v>11.70322</v>
       </c>
       <c r="CE2" s="1">
-        <v>2198.640000</v>
+        <v>2198.64</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1803.080000</v>
+        <v>-1803.08</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>41961.117892</v>
+        <v>41961.117892000002</v>
       </c>
       <c r="B3" s="1">
         <v>11.655866</v>
       </c>
       <c r="C3" s="1">
-        <v>1158.350000</v>
+        <v>1158.3499999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-242.434000</v>
+        <v>-242.434</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>41971.882068</v>
+        <v>41971.882067999999</v>
       </c>
       <c r="G3" s="1">
         <v>11.658856</v>
       </c>
       <c r="H3" s="1">
-        <v>1176.860000</v>
+        <v>1176.8599999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>-204.723000</v>
+        <v>-204.72300000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>41982.346198</v>
+        <v>41982.346197999999</v>
       </c>
       <c r="L3" s="1">
-        <v>11.661763</v>
+        <v>11.661763000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>1202.590000</v>
+        <v>1202.5899999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-144.103000</v>
+        <v>-144.10300000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>41992.826632</v>
+        <v>41992.826631999997</v>
       </c>
       <c r="Q3" s="1">
         <v>11.664674</v>
       </c>
       <c r="R3" s="1">
-        <v>1209.990000</v>
+        <v>1209.99</v>
       </c>
       <c r="S3" s="1">
-        <v>-123.942000</v>
+        <v>-123.94199999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>42003.382490</v>
+        <v>42003.382490000004</v>
       </c>
       <c r="V3" s="1">
-        <v>11.667606</v>
+        <v>11.667605999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1217.370000</v>
+        <v>1217.3699999999999</v>
       </c>
       <c r="X3" s="1">
-        <v>-104.942000</v>
+        <v>-104.94199999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>42013.825276</v>
+        <v>42013.825276000003</v>
       </c>
       <c r="AA3" s="1">
-        <v>11.670507</v>
+        <v>11.670507000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1225.600000</v>
+        <v>1225.5999999999999</v>
       </c>
       <c r="AC3" s="1">
-        <v>-89.633200</v>
+        <v>-89.633200000000002</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>42024.688671</v>
+        <v>42024.688671000004</v>
       </c>
       <c r="AF3" s="1">
         <v>11.673525</v>
       </c>
       <c r="AG3" s="1">
-        <v>1230.600000</v>
+        <v>1230.5999999999999</v>
       </c>
       <c r="AH3" s="1">
-        <v>-85.695700</v>
+        <v>-85.695700000000002</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>42035.226640</v>
+        <v>42035.226640000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>11.676452</v>
+        <v>11.676451999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1238.070000</v>
+        <v>1238.07</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.545300</v>
+        <v>-89.545299999999997</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>42045.826146</v>
+        <v>42045.826145999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>11.679396</v>
+        <v>11.679396000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1246.210000</v>
+        <v>1246.21</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.814000</v>
+        <v>-101.81399999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>42056.504052</v>
+        <v>42056.504051999997</v>
       </c>
       <c r="AU3" s="1">
-        <v>11.682362</v>
+        <v>11.682361999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1256.220000</v>
+        <v>1256.22</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.398000</v>
+        <v>-121.398</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>42067.319288</v>
+        <v>42067.319287999999</v>
       </c>
       <c r="AZ3" s="1">
         <v>11.685366</v>
       </c>
       <c r="BA3" s="1">
-        <v>1264.680000</v>
+        <v>1264.68</v>
       </c>
       <c r="BB3" s="1">
-        <v>-139.092000</v>
+        <v>-139.09200000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>42077.934664</v>
       </c>
       <c r="BE3" s="1">
-        <v>11.688315</v>
+        <v>11.688314999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1304.750000</v>
+        <v>1304.75</v>
       </c>
       <c r="BG3" s="1">
-        <v>-222.122000</v>
+        <v>-222.12200000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>42088.608074</v>
+        <v>42088.608074000003</v>
       </c>
       <c r="BJ3" s="1">
-        <v>11.691280</v>
+        <v>11.691280000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1374.250000</v>
+        <v>1374.25</v>
       </c>
       <c r="BL3" s="1">
-        <v>-360.734000</v>
+        <v>-360.73399999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>42099.698156</v>
+        <v>42099.698155999999</v>
       </c>
       <c r="BO3" s="1">
-        <v>11.694361</v>
+        <v>11.694361000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1488.900000</v>
+        <v>1488.9</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-587.367000</v>
+        <v>-587.36699999999996</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>42110.459822</v>
+        <v>42110.459821999997</v>
       </c>
       <c r="BT3" s="1">
-        <v>11.697350</v>
+        <v>11.69735</v>
       </c>
       <c r="BU3" s="1">
-        <v>1622.070000</v>
+        <v>1622.07</v>
       </c>
       <c r="BV3" s="1">
-        <v>-843.465000</v>
+        <v>-843.46500000000003</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>42121.174398</v>
+        <v>42121.174398000003</v>
       </c>
       <c r="BY3" s="1">
         <v>11.700326</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1775.420000</v>
+        <v>1775.42</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1123.270000</v>
+        <v>-1123.27</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>42132.188561</v>
+        <v>42132.188561000003</v>
       </c>
       <c r="CD3" s="1">
         <v>11.703386</v>
       </c>
       <c r="CE3" s="1">
-        <v>2201.080000</v>
+        <v>2201.08</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1801.690000</v>
+        <v>-1801.69</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>41961.802865</v>
+        <v>41961.802864999998</v>
       </c>
       <c r="B4" s="1">
         <v>11.656056</v>
       </c>
       <c r="C4" s="1">
-        <v>1158.150000</v>
+        <v>1158.1500000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-242.573000</v>
+        <v>-242.57300000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>41972.225302</v>
+        <v>41972.225301999999</v>
       </c>
       <c r="G4" s="1">
         <v>11.658951</v>
       </c>
       <c r="H4" s="1">
-        <v>1176.900000</v>
+        <v>1176.9000000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>-204.575000</v>
+        <v>-204.57499999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>41982.694855</v>
+        <v>41982.694855000002</v>
       </c>
       <c r="L4" s="1">
-        <v>11.661860</v>
+        <v>11.661860000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>1202.250000</v>
+        <v>1202.25</v>
       </c>
       <c r="N4" s="1">
-        <v>-144.064000</v>
+        <v>-144.06399999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>41993.175849</v>
+        <v>41993.175848999999</v>
       </c>
       <c r="Q4" s="1">
         <v>11.664771</v>
       </c>
       <c r="R4" s="1">
-        <v>1209.990000</v>
+        <v>1209.99</v>
       </c>
       <c r="S4" s="1">
-        <v>-123.905000</v>
+        <v>-123.905</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>42004.035225</v>
@@ -1055,255 +1471,255 @@
         <v>11.667788</v>
       </c>
       <c r="W4" s="1">
-        <v>1217.450000</v>
+        <v>1217.45</v>
       </c>
       <c r="X4" s="1">
-        <v>-104.894000</v>
+        <v>-104.89400000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>42014.487421</v>
+        <v>42014.487420999998</v>
       </c>
       <c r="AA4" s="1">
         <v>11.670691</v>
       </c>
       <c r="AB4" s="1">
-        <v>1225.540000</v>
+        <v>1225.54</v>
       </c>
       <c r="AC4" s="1">
-        <v>-89.574400</v>
+        <v>-89.574399999999997</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>42025.069070</v>
+        <v>42025.069069999998</v>
       </c>
       <c r="AF4" s="1">
-        <v>11.673630</v>
+        <v>11.673629999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>1230.580000</v>
+        <v>1230.58</v>
       </c>
       <c r="AH4" s="1">
-        <v>-85.714100</v>
+        <v>-85.714100000000002</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>42035.591736</v>
+        <v>42035.591736000002</v>
       </c>
       <c r="AK4" s="1">
         <v>11.676553</v>
       </c>
       <c r="AL4" s="1">
-        <v>1238.040000</v>
+        <v>1238.04</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.579600</v>
+        <v>-89.579599999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>42046.183267</v>
       </c>
       <c r="AP4" s="1">
-        <v>11.679495</v>
+        <v>11.679494999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1246.180000</v>
+        <v>1246.18</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.786000</v>
+        <v>-101.786</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>42056.867093</v>
+        <v>42056.867093000001</v>
       </c>
       <c r="AU4" s="1">
         <v>11.682463</v>
       </c>
       <c r="AV4" s="1">
-        <v>1256.220000</v>
+        <v>1256.22</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.422000</v>
+        <v>-121.422</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>42067.681365</v>
+        <v>42067.681364999997</v>
       </c>
       <c r="AZ4" s="1">
-        <v>11.685467</v>
+        <v>11.685466999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1264.640000</v>
+        <v>1264.6400000000001</v>
       </c>
       <c r="BB4" s="1">
-        <v>-139.123000</v>
+        <v>-139.12299999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>42078.358779</v>
+        <v>42078.358779000002</v>
       </c>
       <c r="BE4" s="1">
         <v>11.688433</v>
       </c>
       <c r="BF4" s="1">
-        <v>1304.730000</v>
+        <v>1304.73</v>
       </c>
       <c r="BG4" s="1">
-        <v>-222.126000</v>
+        <v>-222.126</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>42088.942409</v>
+        <v>42088.942409000003</v>
       </c>
       <c r="BJ4" s="1">
         <v>11.691373</v>
       </c>
       <c r="BK4" s="1">
-        <v>1374.270000</v>
+        <v>1374.27</v>
       </c>
       <c r="BL4" s="1">
-        <v>-360.803000</v>
+        <v>-360.803</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>42100.116746</v>
       </c>
       <c r="BO4" s="1">
-        <v>11.694477</v>
+        <v>11.694476999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1488.820000</v>
+        <v>1488.82</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-587.349000</v>
+        <v>-587.34900000000005</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>42110.873021</v>
+        <v>42110.873020999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>11.697465</v>
+        <v>11.697464999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1622.070000</v>
+        <v>1622.07</v>
       </c>
       <c r="BV4" s="1">
-        <v>-843.584000</v>
+        <v>-843.58399999999995</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>42121.624270</v>
+        <v>42121.62427</v>
       </c>
       <c r="BY4" s="1">
-        <v>11.700451</v>
+        <v>11.700450999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1775.420000</v>
+        <v>1775.42</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1123.400000</v>
+        <v>-1123.4000000000001</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>42132.725728</v>
+        <v>42132.725727999998</v>
       </c>
       <c r="CD4" s="1">
         <v>11.703535</v>
       </c>
       <c r="CE4" s="1">
-        <v>2199.000000</v>
+        <v>2199</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1801.860000</v>
+        <v>-1801.86</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>41962.145601</v>
+        <v>41962.145600999997</v>
       </c>
       <c r="B5" s="1">
-        <v>11.656152</v>
+        <v>11.656152000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>1157.910000</v>
+        <v>1157.9100000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-242.541000</v>
+        <v>-242.541</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>41972.569060</v>
+        <v>41972.569060000002</v>
       </c>
       <c r="G5" s="1">
-        <v>11.659047</v>
+        <v>11.659046999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>1177.380000</v>
+        <v>1177.3800000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>-204.357000</v>
+        <v>-204.357</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>41983.047013</v>
+        <v>41983.047013000003</v>
       </c>
       <c r="L5" s="1">
         <v>11.661958</v>
       </c>
       <c r="M5" s="1">
-        <v>1202.380000</v>
+        <v>1202.3800000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>-144.258000</v>
+        <v>-144.25800000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>41993.835495</v>
+        <v>41993.835494999999</v>
       </c>
       <c r="Q5" s="1">
         <v>11.664954</v>
       </c>
       <c r="R5" s="1">
-        <v>1209.980000</v>
+        <v>1209.98</v>
       </c>
       <c r="S5" s="1">
-        <v>-124.038000</v>
+        <v>-124.038</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>42004.411689</v>
@@ -1312,375 +1728,375 @@
         <v>11.667892</v>
       </c>
       <c r="W5" s="1">
-        <v>1217.530000</v>
+        <v>1217.53</v>
       </c>
       <c r="X5" s="1">
-        <v>-104.912000</v>
+        <v>-104.91200000000001</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>42014.867883</v>
+        <v>42014.867882999999</v>
       </c>
       <c r="AA5" s="1">
         <v>11.670797</v>
       </c>
       <c r="AB5" s="1">
-        <v>1225.570000</v>
+        <v>1225.57</v>
       </c>
       <c r="AC5" s="1">
-        <v>-89.497700</v>
+        <v>-89.497699999999995</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>42025.412797</v>
+        <v>42025.412796999997</v>
       </c>
       <c r="AF5" s="1">
         <v>11.673726</v>
       </c>
       <c r="AG5" s="1">
-        <v>1230.600000</v>
+        <v>1230.5999999999999</v>
       </c>
       <c r="AH5" s="1">
-        <v>-85.678800</v>
+        <v>-85.678799999999995</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>42035.941381</v>
+        <v>42035.941380999997</v>
       </c>
       <c r="AK5" s="1">
-        <v>11.676650</v>
+        <v>11.67665</v>
       </c>
       <c r="AL5" s="1">
-        <v>1238.070000</v>
+        <v>1238.07</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.571300</v>
+        <v>-89.571299999999994</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>42046.545841</v>
+        <v>42046.545840999999</v>
       </c>
       <c r="AP5" s="1">
         <v>11.679596</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1246.170000</v>
+        <v>1246.17</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.782000</v>
+        <v>-101.782</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>42057.289720</v>
+        <v>42057.289720000001</v>
       </c>
       <c r="AU5" s="1">
-        <v>11.682580</v>
+        <v>11.68258</v>
       </c>
       <c r="AV5" s="1">
-        <v>1256.180000</v>
+        <v>1256.18</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.412000</v>
+        <v>-121.41200000000001</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>42068.115862</v>
+        <v>42068.115861999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>11.685588</v>
+        <v>11.685587999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1264.670000</v>
+        <v>1264.67</v>
       </c>
       <c r="BB5" s="1">
-        <v>-139.128000</v>
+        <v>-139.12799999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>42078.656343</v>
+        <v>42078.656343000002</v>
       </c>
       <c r="BE5" s="1">
         <v>11.688516</v>
       </c>
       <c r="BF5" s="1">
-        <v>1304.720000</v>
+        <v>1304.72</v>
       </c>
       <c r="BG5" s="1">
-        <v>-222.103000</v>
+        <v>-222.10300000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>42089.318842</v>
+        <v>42089.318842000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>11.691477</v>
+        <v>11.691477000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1374.230000</v>
+        <v>1374.23</v>
       </c>
       <c r="BL5" s="1">
-        <v>-360.771000</v>
+        <v>-360.77100000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>42100.521482</v>
+        <v>42100.521481999996</v>
       </c>
       <c r="BO5" s="1">
-        <v>11.694589</v>
+        <v>11.694589000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1488.810000</v>
+        <v>1488.81</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-587.363000</v>
+        <v>-587.36300000000006</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>42111.299052</v>
+        <v>42111.299052000002</v>
       </c>
       <c r="BT5" s="1">
         <v>11.697583</v>
       </c>
       <c r="BU5" s="1">
-        <v>1622.010000</v>
+        <v>1622.01</v>
       </c>
       <c r="BV5" s="1">
-        <v>-843.542000</v>
+        <v>-843.54200000000003</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>42122.054797</v>
+        <v>42122.054796999997</v>
       </c>
       <c r="BY5" s="1">
         <v>11.700571</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1775.290000</v>
+        <v>1775.29</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1123.270000</v>
+        <v>-1123.27</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>42133.266862</v>
+        <v>42133.266861999997</v>
       </c>
       <c r="CD5" s="1">
         <v>11.703685</v>
       </c>
       <c r="CE5" s="1">
-        <v>2200.800000</v>
+        <v>2200.8000000000002</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1803.510000</v>
+        <v>-1803.51</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>41962.496769</v>
+        <v>41962.496768999998</v>
       </c>
       <c r="B6" s="1">
-        <v>11.656249</v>
+        <v>11.656249000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>1158.310000</v>
+        <v>1158.31</v>
       </c>
       <c r="D6" s="1">
-        <v>-242.473000</v>
+        <v>-242.47300000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>41973.247090</v>
+        <v>41973.247089999997</v>
       </c>
       <c r="G6" s="1">
-        <v>11.659235</v>
+        <v>11.659235000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>1176.610000</v>
+        <v>1176.6099999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-204.288000</v>
+        <v>-204.28800000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>41983.703252</v>
+        <v>41983.703251999999</v>
       </c>
       <c r="L6" s="1">
-        <v>11.662140</v>
+        <v>11.662140000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>1202.250000</v>
+        <v>1202.25</v>
       </c>
       <c r="N6" s="1">
-        <v>-144.043000</v>
+        <v>-144.04300000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>41994.220887</v>
+        <v>41994.220887000003</v>
       </c>
       <c r="Q6" s="1">
         <v>11.665061</v>
       </c>
       <c r="R6" s="1">
-        <v>1209.970000</v>
+        <v>1209.97</v>
       </c>
       <c r="S6" s="1">
-        <v>-124.002000</v>
+        <v>-124.002</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>42004.755980</v>
+        <v>42004.755980000002</v>
       </c>
       <c r="V6" s="1">
-        <v>11.667988</v>
+        <v>11.667987999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>1217.460000</v>
+        <v>1217.46</v>
       </c>
       <c r="X6" s="1">
-        <v>-105.051000</v>
+        <v>-105.051</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>42015.217036</v>
+        <v>42015.217036000002</v>
       </c>
       <c r="AA6" s="1">
-        <v>11.670894</v>
+        <v>11.670894000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1225.460000</v>
+        <v>1225.46</v>
       </c>
       <c r="AC6" s="1">
-        <v>-89.560400</v>
+        <v>-89.560400000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>42025.761981</v>
+        <v>42025.761981000003</v>
       </c>
       <c r="AF6" s="1">
-        <v>11.673823</v>
+        <v>11.673823000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1230.620000</v>
+        <v>1230.6199999999999</v>
       </c>
       <c r="AH6" s="1">
-        <v>-85.668200</v>
+        <v>-85.668199999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>42036.485984</v>
+        <v>42036.485983999999</v>
       </c>
       <c r="AK6" s="1">
         <v>11.676802</v>
       </c>
       <c r="AL6" s="1">
-        <v>1238.050000</v>
+        <v>1238.05</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.563900</v>
+        <v>-89.563900000000004</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>42046.976369</v>
+        <v>42046.976369000004</v>
       </c>
       <c r="AP6" s="1">
-        <v>11.679716</v>
+        <v>11.679716000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1246.180000</v>
+        <v>1246.18</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.813000</v>
+        <v>-101.813</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>42057.599186</v>
+        <v>42057.599185999999</v>
       </c>
       <c r="AU6" s="1">
-        <v>11.682666</v>
+        <v>11.682665999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1256.230000</v>
+        <v>1256.23</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.420000</v>
+        <v>-121.42</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>42068.397106</v>
+        <v>42068.397105999997</v>
       </c>
       <c r="AZ6" s="1">
-        <v>11.685666</v>
+        <v>11.685665999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1264.670000</v>
+        <v>1264.67</v>
       </c>
       <c r="BB6" s="1">
-        <v>-139.104000</v>
+        <v>-139.10400000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>42079.017928</v>
+        <v>42079.017928000001</v>
       </c>
       <c r="BE6" s="1">
         <v>11.688616</v>
       </c>
       <c r="BF6" s="1">
-        <v>1304.690000</v>
+        <v>1304.69</v>
       </c>
       <c r="BG6" s="1">
-        <v>-222.138000</v>
+        <v>-222.13800000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>42089.693818</v>
@@ -1689,300 +2105,300 @@
         <v>11.691582</v>
       </c>
       <c r="BK6" s="1">
-        <v>1374.220000</v>
+        <v>1374.22</v>
       </c>
       <c r="BL6" s="1">
-        <v>-360.800000</v>
+        <v>-360.8</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>42101.262009</v>
+        <v>42101.262008999998</v>
       </c>
       <c r="BO6" s="1">
-        <v>11.694795</v>
+        <v>11.694794999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1488.870000</v>
+        <v>1488.87</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-587.379000</v>
+        <v>-587.37900000000002</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>42111.721679</v>
+        <v>42111.721679000002</v>
       </c>
       <c r="BT6" s="1">
-        <v>11.697700</v>
+        <v>11.697699999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1622.040000</v>
+        <v>1622.04</v>
       </c>
       <c r="BV6" s="1">
-        <v>-843.604000</v>
+        <v>-843.60400000000004</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>42122.475405</v>
+        <v>42122.475404999997</v>
       </c>
       <c r="BY6" s="1">
         <v>11.700688</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1775.280000</v>
+        <v>1775.28</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1123.220000</v>
+        <v>-1123.22</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>42133.805023</v>
+        <v>42133.805023000001</v>
       </c>
       <c r="CD6" s="1">
         <v>11.703835</v>
       </c>
       <c r="CE6" s="1">
-        <v>2199.250000</v>
+        <v>2199.25</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1800.570000</v>
+        <v>-1800.57</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>41963.155493</v>
+        <v>41963.155492999998</v>
       </c>
       <c r="B7" s="1">
-        <v>11.656432</v>
+        <v>11.656432000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>1158.590000</v>
+        <v>1158.5899999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-242.540000</v>
+        <v>-242.54</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>41973.603186</v>
       </c>
       <c r="G7" s="1">
-        <v>11.659334</v>
+        <v>11.659333999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>1176.710000</v>
+        <v>1176.71</v>
       </c>
       <c r="I7" s="1">
-        <v>-204.297000</v>
+        <v>-204.297</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>41984.082164</v>
+        <v>41984.082163999999</v>
       </c>
       <c r="L7" s="1">
         <v>11.662245</v>
       </c>
       <c r="M7" s="1">
-        <v>1201.980000</v>
+        <v>1201.98</v>
       </c>
       <c r="N7" s="1">
-        <v>-144.127000</v>
+        <v>-144.12700000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>41994.567590</v>
+        <v>41994.567589999999</v>
       </c>
       <c r="Q7" s="1">
         <v>11.665158</v>
       </c>
       <c r="R7" s="1">
-        <v>1209.930000</v>
+        <v>1209.93</v>
       </c>
       <c r="S7" s="1">
-        <v>-123.920000</v>
+        <v>-123.92</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>42005.099145</v>
       </c>
       <c r="V7" s="1">
-        <v>11.668083</v>
+        <v>11.668082999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>1217.400000</v>
+        <v>1217.4000000000001</v>
       </c>
       <c r="X7" s="1">
-        <v>-104.949000</v>
+        <v>-104.949</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>42015.567707</v>
+        <v>42015.567707000002</v>
       </c>
       <c r="AA7" s="1">
-        <v>11.670991</v>
+        <v>11.670991000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1225.600000</v>
+        <v>1225.5999999999999</v>
       </c>
       <c r="AC7" s="1">
-        <v>-89.592900</v>
+        <v>-89.5929</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>42026.185565</v>
       </c>
       <c r="AF7" s="1">
-        <v>11.673940</v>
+        <v>11.67394</v>
       </c>
       <c r="AG7" s="1">
-        <v>1230.660000</v>
+        <v>1230.6600000000001</v>
       </c>
       <c r="AH7" s="1">
-        <v>-85.713400</v>
+        <v>-85.713399999999993</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>42036.638256</v>
+        <v>42036.638255999998</v>
       </c>
       <c r="AK7" s="1">
-        <v>11.676844</v>
+        <v>11.676843999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1238.060000</v>
+        <v>1238.06</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.547700</v>
+        <v>-89.547700000000006</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>42047.265536</v>
+        <v>42047.265535999999</v>
       </c>
       <c r="AP7" s="1">
         <v>11.679796</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1246.150000</v>
+        <v>1246.1500000000001</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.820000</v>
+        <v>-101.82</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>42057.959811</v>
+        <v>42057.959811000001</v>
       </c>
       <c r="AU7" s="1">
         <v>11.682767</v>
       </c>
       <c r="AV7" s="1">
-        <v>1256.230000</v>
+        <v>1256.23</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.408000</v>
+        <v>-121.408</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>42068.757725</v>
+        <v>42068.757725000003</v>
       </c>
       <c r="AZ7" s="1">
-        <v>11.685766</v>
+        <v>11.685765999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1264.670000</v>
+        <v>1264.67</v>
       </c>
       <c r="BB7" s="1">
-        <v>-139.104000</v>
+        <v>-139.10400000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>42079.376069</v>
+        <v>42079.376068999998</v>
       </c>
       <c r="BE7" s="1">
-        <v>11.688716</v>
+        <v>11.688715999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1304.720000</v>
+        <v>1304.72</v>
       </c>
       <c r="BG7" s="1">
-        <v>-222.107000</v>
+        <v>-222.107</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>42090.470055</v>
+        <v>42090.470054999998</v>
       </c>
       <c r="BJ7" s="1">
-        <v>11.691797</v>
+        <v>11.691796999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1374.260000</v>
+        <v>1374.26</v>
       </c>
       <c r="BL7" s="1">
-        <v>-360.741000</v>
+        <v>-360.74099999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>42101.730582</v>
+        <v>42101.730581999997</v>
       </c>
       <c r="BO7" s="1">
         <v>11.694925</v>
       </c>
       <c r="BP7" s="1">
-        <v>1488.880000</v>
+        <v>1488.88</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-587.390000</v>
+        <v>-587.39</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>42112.127872</v>
+        <v>42112.127871999997</v>
       </c>
       <c r="BT7" s="1">
         <v>11.697813</v>
       </c>
       <c r="BU7" s="1">
-        <v>1622.030000</v>
+        <v>1622.03</v>
       </c>
       <c r="BV7" s="1">
-        <v>-843.575000</v>
+        <v>-843.57500000000005</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>42122.893569</v>
@@ -1991,512 +2407,512 @@
         <v>11.700804</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1775.410000</v>
+        <v>1775.41</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1123.400000</v>
+        <v>-1123.4000000000001</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>42134.663102</v>
+        <v>42134.663101999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>11.704073</v>
+        <v>11.704072999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>2201.640000</v>
+        <v>2201.64</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1802.390000</v>
+        <v>-1802.39</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>41963.521540</v>
+        <v>41963.521540000002</v>
       </c>
       <c r="B8" s="1">
-        <v>11.656534</v>
+        <v>11.656534000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>1158.510000</v>
+        <v>1158.51</v>
       </c>
       <c r="D8" s="1">
-        <v>-242.532000</v>
+        <v>-242.53200000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>41973.950882</v>
+        <v>41973.950881999997</v>
       </c>
       <c r="G8" s="1">
         <v>11.659431</v>
       </c>
       <c r="H8" s="1">
-        <v>1177.990000</v>
+        <v>1177.99</v>
       </c>
       <c r="I8" s="1">
-        <v>-203.460000</v>
+        <v>-203.46</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>41984.429363</v>
+        <v>41984.429363000003</v>
       </c>
       <c r="L8" s="1">
         <v>11.662341</v>
       </c>
       <c r="M8" s="1">
-        <v>1202.270000</v>
+        <v>1202.27</v>
       </c>
       <c r="N8" s="1">
-        <v>-143.898000</v>
+        <v>-143.898</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>41994.916277</v>
+        <v>41994.916276999997</v>
       </c>
       <c r="Q8" s="1">
         <v>11.665255</v>
       </c>
       <c r="R8" s="1">
-        <v>1209.970000</v>
+        <v>1209.97</v>
       </c>
       <c r="S8" s="1">
-        <v>-123.904000</v>
+        <v>-123.904</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>42005.530695</v>
+        <v>42005.530695000001</v>
       </c>
       <c r="V8" s="1">
         <v>11.668203</v>
       </c>
       <c r="W8" s="1">
-        <v>1217.330000</v>
+        <v>1217.33</v>
       </c>
       <c r="X8" s="1">
-        <v>-104.926000</v>
+        <v>-104.926</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>42015.993275</v>
+        <v>42015.993275000001</v>
       </c>
       <c r="AA8" s="1">
         <v>11.671109</v>
       </c>
       <c r="AB8" s="1">
-        <v>1225.610000</v>
+        <v>1225.6099999999999</v>
       </c>
       <c r="AC8" s="1">
-        <v>-89.575100</v>
+        <v>-89.575100000000006</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>42026.464350</v>
+        <v>42026.464350000002</v>
       </c>
       <c r="AF8" s="1">
         <v>11.674018</v>
       </c>
       <c r="AG8" s="1">
-        <v>1230.600000</v>
+        <v>1230.5999999999999</v>
       </c>
       <c r="AH8" s="1">
-        <v>-85.679900</v>
+        <v>-85.679900000000004</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>42036.984959</v>
+        <v>42036.984959000001</v>
       </c>
       <c r="AK8" s="1">
-        <v>11.676940</v>
+        <v>11.67694</v>
       </c>
       <c r="AL8" s="1">
-        <v>1238.050000</v>
+        <v>1238.05</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.588900</v>
+        <v>-89.588899999999995</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>42047.625664</v>
+        <v>42047.625663999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>11.679896</v>
+        <v>11.679895999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1246.180000</v>
+        <v>1246.18</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.827000</v>
+        <v>-101.827</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>42058.328349</v>
+        <v>42058.328349000003</v>
       </c>
       <c r="AU8" s="1">
         <v>11.682869</v>
       </c>
       <c r="AV8" s="1">
-        <v>1256.230000</v>
+        <v>1256.23</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.413000</v>
+        <v>-121.413</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>42069.476884</v>
+        <v>42069.476884000003</v>
       </c>
       <c r="AZ8" s="1">
-        <v>11.685966</v>
+        <v>11.685966000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1264.690000</v>
+        <v>1264.69</v>
       </c>
       <c r="BB8" s="1">
-        <v>-139.081000</v>
+        <v>-139.08099999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>42080.101190</v>
+        <v>42080.101190000001</v>
       </c>
       <c r="BE8" s="1">
         <v>11.688917</v>
       </c>
       <c r="BF8" s="1">
-        <v>1304.730000</v>
+        <v>1304.73</v>
       </c>
       <c r="BG8" s="1">
-        <v>-222.108000</v>
+        <v>-222.108</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>42090.843575</v>
+        <v>42090.843574999999</v>
       </c>
       <c r="BJ8" s="1">
         <v>11.691901</v>
       </c>
       <c r="BK8" s="1">
-        <v>1374.260000</v>
+        <v>1374.26</v>
       </c>
       <c r="BL8" s="1">
-        <v>-360.763000</v>
+        <v>-360.76299999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>42102.142409</v>
       </c>
       <c r="BO8" s="1">
-        <v>11.695040</v>
+        <v>11.695040000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1488.830000</v>
+        <v>1488.83</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-587.379000</v>
+        <v>-587.37900000000002</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>42112.544010</v>
+        <v>42112.544009999998</v>
       </c>
       <c r="BT8" s="1">
         <v>11.697929</v>
       </c>
       <c r="BU8" s="1">
-        <v>1622.020000</v>
+        <v>1622.02</v>
       </c>
       <c r="BV8" s="1">
-        <v>-843.600000</v>
+        <v>-843.6</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>42123.627613</v>
+        <v>42123.627612999997</v>
       </c>
       <c r="BY8" s="1">
         <v>11.701008</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1775.390000</v>
+        <v>1775.39</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1123.260000</v>
+        <v>-1123.26</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>42134.883325</v>
+        <v>42134.883325000003</v>
       </c>
       <c r="CD8" s="1">
         <v>11.704134</v>
       </c>
       <c r="CE8" s="1">
-        <v>2201.210000</v>
+        <v>2201.21</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1802.900000</v>
+        <v>-1802.9</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>41963.866721</v>
+        <v>41963.866720999999</v>
       </c>
       <c r="B9" s="1">
-        <v>11.656630</v>
+        <v>11.65663</v>
       </c>
       <c r="C9" s="1">
-        <v>1158.390000</v>
+        <v>1158.3900000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-242.833000</v>
+        <v>-242.833</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>41974.294154</v>
+        <v>41974.294154000003</v>
       </c>
       <c r="G9" s="1">
         <v>11.659526</v>
       </c>
       <c r="H9" s="1">
-        <v>1177.070000</v>
+        <v>1177.07</v>
       </c>
       <c r="I9" s="1">
-        <v>-204.059000</v>
+        <v>-204.059</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>41984.774595</v>
+        <v>41984.774595000003</v>
       </c>
       <c r="L9" s="1">
-        <v>11.662437</v>
+        <v>11.662437000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>1202.250000</v>
+        <v>1202.25</v>
       </c>
       <c r="N9" s="1">
-        <v>-144.049000</v>
+        <v>-144.04900000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>41995.342852</v>
+        <v>41995.342852000002</v>
       </c>
       <c r="Q9" s="1">
-        <v>11.665373</v>
+        <v>11.665373000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>1209.970000</v>
+        <v>1209.97</v>
       </c>
       <c r="S9" s="1">
-        <v>-123.909000</v>
+        <v>-123.90900000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>42005.789152</v>
+        <v>42005.789151999998</v>
       </c>
       <c r="V9" s="1">
         <v>11.668275</v>
       </c>
       <c r="W9" s="1">
-        <v>1217.370000</v>
+        <v>1217.3699999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-104.946000</v>
+        <v>-104.946</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>42016.269578</v>
+        <v>42016.269577999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>11.671186</v>
+        <v>11.671186000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>1225.510000</v>
+        <v>1225.51</v>
       </c>
       <c r="AC9" s="1">
-        <v>-89.655600</v>
+        <v>-89.655600000000007</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>42026.821472</v>
+        <v>42026.821472000003</v>
       </c>
       <c r="AF9" s="1">
-        <v>11.674117</v>
+        <v>11.674117000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>1230.590000</v>
+        <v>1230.5899999999999</v>
       </c>
       <c r="AH9" s="1">
-        <v>-85.717900</v>
+        <v>-85.7179</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>42037.334173</v>
+        <v>42037.334173000003</v>
       </c>
       <c r="AK9" s="1">
         <v>11.677037</v>
       </c>
       <c r="AL9" s="1">
-        <v>1238.020000</v>
+        <v>1238.02</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.607700</v>
+        <v>-89.607699999999994</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>42047.987711</v>
+        <v>42047.987711000002</v>
       </c>
       <c r="AP9" s="1">
         <v>11.679997</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1246.160000</v>
+        <v>1246.1600000000001</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.791000</v>
+        <v>-101.791</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>42059.053458</v>
+        <v>42059.053458000002</v>
       </c>
       <c r="AU9" s="1">
-        <v>11.683070</v>
+        <v>11.683070000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1256.230000</v>
+        <v>1256.23</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.423000</v>
+        <v>-121.423</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>42069.861778</v>
+        <v>42069.861777999999</v>
       </c>
       <c r="AZ9" s="1">
         <v>11.686073</v>
       </c>
       <c r="BA9" s="1">
-        <v>1264.670000</v>
+        <v>1264.67</v>
       </c>
       <c r="BB9" s="1">
-        <v>-139.103000</v>
+        <v>-139.10300000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>42080.460294</v>
+        <v>42080.460293999997</v>
       </c>
       <c r="BE9" s="1">
         <v>11.689017</v>
       </c>
       <c r="BF9" s="1">
-        <v>1304.730000</v>
+        <v>1304.73</v>
       </c>
       <c r="BG9" s="1">
-        <v>-222.155000</v>
+        <v>-222.155</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>42091.220502</v>
+        <v>42091.220501999996</v>
       </c>
       <c r="BJ9" s="1">
-        <v>11.692006</v>
+        <v>11.692005999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1374.290000</v>
+        <v>1374.29</v>
       </c>
       <c r="BL9" s="1">
-        <v>-360.758000</v>
+        <v>-360.75799999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>42102.863780</v>
+        <v>42102.86378</v>
       </c>
       <c r="BO9" s="1">
-        <v>11.695240</v>
+        <v>11.69524</v>
       </c>
       <c r="BP9" s="1">
-        <v>1488.790000</v>
+        <v>1488.79</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-587.397000</v>
+        <v>-587.39700000000005</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>42113.269197</v>
+        <v>42113.269197000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>11.698130</v>
+        <v>11.698130000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1622.040000</v>
+        <v>1622.04</v>
       </c>
       <c r="BV9" s="1">
-        <v>-843.577000</v>
+        <v>-843.577</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>42123.739211</v>
@@ -2505,45 +2921,45 @@
         <v>11.701039</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1775.270000</v>
+        <v>1775.27</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1123.130000</v>
+        <v>-1123.1300000000001</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>42135.404124</v>
+        <v>42135.404124000001</v>
       </c>
       <c r="CD9" s="1">
         <v>11.704279</v>
       </c>
       <c r="CE9" s="1">
-        <v>2200.500000</v>
+        <v>2200.5</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1801.110000</v>
+        <v>-1801.11</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>41964.209630</v>
+        <v>41964.209629999998</v>
       </c>
       <c r="B10" s="1">
         <v>11.656725</v>
       </c>
       <c r="C10" s="1">
-        <v>1158.330000</v>
+        <v>1158.33</v>
       </c>
       <c r="D10" s="1">
-        <v>-242.529000</v>
+        <v>-242.529</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>41974.724145</v>
@@ -2552,241 +2968,241 @@
         <v>11.659646</v>
       </c>
       <c r="H10" s="1">
-        <v>1177.730000</v>
+        <v>1177.73</v>
       </c>
       <c r="I10" s="1">
-        <v>-204.312000</v>
+        <v>-204.31200000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>41985.211591</v>
+        <v>41985.211590999999</v>
       </c>
       <c r="L10" s="1">
         <v>11.662559</v>
       </c>
       <c r="M10" s="1">
-        <v>1202.110000</v>
+        <v>1202.1099999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-144.231000</v>
+        <v>-144.23099999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>41995.614676</v>
+        <v>41995.614675999997</v>
       </c>
       <c r="Q10" s="1">
-        <v>11.665449</v>
+        <v>11.665449000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1210.020000</v>
+        <v>1210.02</v>
       </c>
       <c r="S10" s="1">
-        <v>-123.928000</v>
+        <v>-123.928</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>42006.132342</v>
+        <v>42006.132341999997</v>
       </c>
       <c r="V10" s="1">
-        <v>11.668370</v>
+        <v>11.668369999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>1217.380000</v>
+        <v>1217.3800000000001</v>
       </c>
       <c r="X10" s="1">
-        <v>-104.871000</v>
+        <v>-104.871</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>42016.617737</v>
       </c>
       <c r="AA10" s="1">
-        <v>11.671283</v>
+        <v>11.671283000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1225.580000</v>
+        <v>1225.58</v>
       </c>
       <c r="AC10" s="1">
-        <v>-89.684600</v>
+        <v>-89.684600000000003</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>42027.170123</v>
+        <v>42027.170123000004</v>
       </c>
       <c r="AF10" s="1">
-        <v>11.674214</v>
+        <v>11.674213999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1230.590000</v>
+        <v>1230.5899999999999</v>
       </c>
       <c r="AH10" s="1">
-        <v>-85.691200</v>
+        <v>-85.691199999999995</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>42038.033041</v>
+        <v>42038.033041000002</v>
       </c>
       <c r="AK10" s="1">
-        <v>11.677231</v>
+        <v>11.677231000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>1238.050000</v>
+        <v>1238.05</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.590200</v>
+        <v>-89.590199999999996</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>42048.706416</v>
+        <v>42048.706416000001</v>
       </c>
       <c r="AP10" s="1">
         <v>11.680196</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1246.180000</v>
+        <v>1246.18</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.805000</v>
+        <v>-101.80500000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>42059.446822</v>
+        <v>42059.446821999998</v>
       </c>
       <c r="AU10" s="1">
-        <v>11.683180</v>
+        <v>11.68318</v>
       </c>
       <c r="AV10" s="1">
-        <v>1256.210000</v>
+        <v>1256.21</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.394000</v>
+        <v>-121.39400000000001</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>42070.234274</v>
+        <v>42070.234274000002</v>
       </c>
       <c r="AZ10" s="1">
         <v>11.686176</v>
       </c>
       <c r="BA10" s="1">
-        <v>1264.660000</v>
+        <v>1264.6600000000001</v>
       </c>
       <c r="BB10" s="1">
-        <v>-139.125000</v>
+        <v>-139.125</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>42080.823860</v>
+        <v>42080.823859999997</v>
       </c>
       <c r="BE10" s="1">
-        <v>11.689118</v>
+        <v>11.689118000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1304.750000</v>
+        <v>1304.75</v>
       </c>
       <c r="BG10" s="1">
-        <v>-222.098000</v>
+        <v>-222.09800000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>42091.945157</v>
+        <v>42091.945157000002</v>
       </c>
       <c r="BJ10" s="1">
         <v>11.692207</v>
       </c>
       <c r="BK10" s="1">
-        <v>1374.250000</v>
+        <v>1374.25</v>
       </c>
       <c r="BL10" s="1">
-        <v>-360.765000</v>
+        <v>-360.76499999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>42102.992551</v>
+        <v>42102.992551000003</v>
       </c>
       <c r="BO10" s="1">
         <v>11.695276</v>
       </c>
       <c r="BP10" s="1">
-        <v>1488.810000</v>
+        <v>1488.81</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-587.415000</v>
+        <v>-587.41499999999996</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>42113.397129</v>
+        <v>42113.397128999997</v>
       </c>
       <c r="BT10" s="1">
-        <v>11.698166</v>
+        <v>11.698166000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1622.110000</v>
+        <v>1622.11</v>
       </c>
       <c r="BV10" s="1">
-        <v>-843.554000</v>
+        <v>-843.55399999999997</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>42124.174202</v>
+        <v>42124.174202000002</v>
       </c>
       <c r="BY10" s="1">
-        <v>11.701160</v>
+        <v>11.70116</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1775.300000</v>
+        <v>1775.3</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1123.390000</v>
+        <v>-1123.3900000000001</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>42135.921453</v>
+        <v>42135.921453000003</v>
       </c>
       <c r="CD10" s="1">
         <v>11.704423</v>
       </c>
       <c r="CE10" s="1">
-        <v>2200.940000</v>
+        <v>2200.94</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1801.420000</v>
+        <v>-1801.42</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>41964.633533</v>
       </c>
@@ -2794,330 +3210,330 @@
         <v>11.656843</v>
       </c>
       <c r="C11" s="1">
-        <v>1158.550000</v>
+        <v>1158.55</v>
       </c>
       <c r="D11" s="1">
-        <v>-242.889000</v>
+        <v>-242.88900000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>41975.005872</v>
+        <v>41975.005872000002</v>
       </c>
       <c r="G11" s="1">
-        <v>11.659724</v>
+        <v>11.659724000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>1177.460000</v>
+        <v>1177.46</v>
       </c>
       <c r="I11" s="1">
-        <v>-204.295000</v>
+        <v>-204.29499999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>41985.486338</v>
+        <v>41985.486338000002</v>
       </c>
       <c r="L11" s="1">
         <v>11.662635</v>
       </c>
       <c r="M11" s="1">
-        <v>1202.190000</v>
+        <v>1202.19</v>
       </c>
       <c r="N11" s="1">
-        <v>-143.949000</v>
+        <v>-143.94900000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>41995.965317</v>
+        <v>41995.965317000002</v>
       </c>
       <c r="Q11" s="1">
-        <v>11.665546</v>
+        <v>11.665546000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>1209.990000</v>
+        <v>1209.99</v>
       </c>
       <c r="S11" s="1">
-        <v>-124.049000</v>
+        <v>-124.04900000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>42006.478518</v>
+        <v>42006.478518000004</v>
       </c>
       <c r="V11" s="1">
         <v>11.668466</v>
       </c>
       <c r="W11" s="1">
-        <v>1217.560000</v>
+        <v>1217.56</v>
       </c>
       <c r="X11" s="1">
-        <v>-105.042000</v>
+        <v>-105.042</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>42016.967951</v>
+        <v>42016.967950999999</v>
       </c>
       <c r="AA11" s="1">
-        <v>11.671380</v>
+        <v>11.671379999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1225.510000</v>
+        <v>1225.51</v>
       </c>
       <c r="AC11" s="1">
-        <v>-89.552300</v>
+        <v>-89.552300000000002</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>42027.855628</v>
+        <v>42027.855627999998</v>
       </c>
       <c r="AF11" s="1">
-        <v>11.674404</v>
+        <v>11.674403999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>1230.600000</v>
+        <v>1230.5999999999999</v>
       </c>
       <c r="AH11" s="1">
-        <v>-85.709200</v>
+        <v>-85.709199999999996</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>42038.382188</v>
+        <v>42038.382188000003</v>
       </c>
       <c r="AK11" s="1">
-        <v>11.677328</v>
+        <v>11.677327999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>1238.080000</v>
+        <v>1238.08</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.579400</v>
+        <v>-89.579400000000007</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>42049.066015</v>
+        <v>42049.066014999997</v>
       </c>
       <c r="AP11" s="1">
         <v>11.680296</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1246.170000</v>
+        <v>1246.17</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.810000</v>
+        <v>-101.81</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>42059.810849</v>
+        <v>42059.810849000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>11.683281</v>
+        <v>11.683280999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>1256.200000</v>
+        <v>1256.2</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.415000</v>
+        <v>-121.41500000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>42070.903906</v>
       </c>
       <c r="AZ11" s="1">
-        <v>11.686362</v>
+        <v>11.686362000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1264.690000</v>
+        <v>1264.69</v>
       </c>
       <c r="BB11" s="1">
-        <v>-139.110000</v>
+        <v>-139.11000000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>42081.490979</v>
+        <v>42081.490979000002</v>
       </c>
       <c r="BE11" s="1">
-        <v>11.689303</v>
+        <v>11.689303000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1304.750000</v>
+        <v>1304.75</v>
       </c>
       <c r="BG11" s="1">
-        <v>-222.121000</v>
+        <v>-222.12100000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>42092.372741</v>
+        <v>42092.372740999999</v>
       </c>
       <c r="BJ11" s="1">
         <v>11.692326</v>
       </c>
       <c r="BK11" s="1">
-        <v>1374.280000</v>
+        <v>1374.28</v>
       </c>
       <c r="BL11" s="1">
-        <v>-360.782000</v>
+        <v>-360.78199999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>42103.384423</v>
+        <v>42103.384423000003</v>
       </c>
       <c r="BO11" s="1">
         <v>11.695385</v>
       </c>
       <c r="BP11" s="1">
-        <v>1488.860000</v>
+        <v>1488.86</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-587.373000</v>
+        <v>-587.37300000000005</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>42113.836611</v>
+        <v>42113.836610999999</v>
       </c>
       <c r="BT11" s="1">
         <v>11.698288</v>
       </c>
       <c r="BU11" s="1">
-        <v>1622.090000</v>
+        <v>1622.09</v>
       </c>
       <c r="BV11" s="1">
-        <v>-843.569000</v>
+        <v>-843.56899999999996</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>42124.595320</v>
+        <v>42124.59532</v>
       </c>
       <c r="BY11" s="1">
         <v>11.701276</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1775.420000</v>
+        <v>1775.42</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1123.410000</v>
+        <v>-1123.4100000000001</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>42136.473034</v>
+        <v>42136.473034000002</v>
       </c>
       <c r="CD11" s="1">
-        <v>11.704576</v>
+        <v>11.704575999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>2201.340000</v>
+        <v>2201.34</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1803.120000</v>
+        <v>-1803.12</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>41964.907360</v>
+        <v>41964.907359999997</v>
       </c>
       <c r="B12" s="1">
         <v>11.656919</v>
       </c>
       <c r="C12" s="1">
-        <v>1158.360000</v>
+        <v>1158.3599999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-242.596000</v>
+        <v>-242.596</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>41975.351616</v>
       </c>
       <c r="G12" s="1">
-        <v>11.659820</v>
+        <v>11.65982</v>
       </c>
       <c r="H12" s="1">
-        <v>1176.720000</v>
+        <v>1176.72</v>
       </c>
       <c r="I12" s="1">
-        <v>-203.847000</v>
+        <v>-203.84700000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>41985.836514</v>
+        <v>41985.836514000002</v>
       </c>
       <c r="L12" s="1">
         <v>11.662732</v>
       </c>
       <c r="M12" s="1">
-        <v>1202.250000</v>
+        <v>1202.25</v>
       </c>
       <c r="N12" s="1">
-        <v>-143.981000</v>
+        <v>-143.98099999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>41996.312516</v>
+        <v>41996.312515999998</v>
       </c>
       <c r="Q12" s="1">
         <v>11.665642</v>
       </c>
       <c r="R12" s="1">
-        <v>1209.920000</v>
+        <v>1209.92</v>
       </c>
       <c r="S12" s="1">
-        <v>-123.993000</v>
+        <v>-123.99299999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>42007.164485</v>
+        <v>42007.164485000001</v>
       </c>
       <c r="V12" s="1">
         <v>11.668657</v>
       </c>
       <c r="W12" s="1">
-        <v>1217.510000</v>
+        <v>1217.51</v>
       </c>
       <c r="X12" s="1">
-        <v>-105.088000</v>
+        <v>-105.08799999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>42017.661817</v>
@@ -3126,240 +3542,240 @@
         <v>11.671573</v>
       </c>
       <c r="AB12" s="1">
-        <v>1225.480000</v>
+        <v>1225.48</v>
       </c>
       <c r="AC12" s="1">
-        <v>-89.541700</v>
+        <v>-89.541700000000006</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>42028.204778</v>
+        <v>42028.204777999999</v>
       </c>
       <c r="AF12" s="1">
-        <v>11.674501</v>
+        <v>11.674500999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>1230.560000</v>
+        <v>1230.56</v>
       </c>
       <c r="AH12" s="1">
-        <v>-85.696100</v>
+        <v>-85.696100000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>42038.728395</v>
+        <v>42038.728394999998</v>
       </c>
       <c r="AK12" s="1">
-        <v>11.677425</v>
+        <v>11.677424999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1238.020000</v>
+        <v>1238.02</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.560400</v>
+        <v>-89.560400000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>42049.427103</v>
+        <v>42049.427103000002</v>
       </c>
       <c r="AP12" s="1">
         <v>11.680396</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1246.170000</v>
+        <v>1246.17</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.807000</v>
+        <v>-101.807</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>42060.486936</v>
+        <v>42060.486936000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>11.683469</v>
+        <v>11.683469000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>1256.230000</v>
+        <v>1256.23</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.405000</v>
+        <v>-121.405</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>42071.314592</v>
+        <v>42071.314592000002</v>
       </c>
       <c r="AZ12" s="1">
-        <v>11.686476</v>
+        <v>11.686476000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1264.680000</v>
+        <v>1264.68</v>
       </c>
       <c r="BB12" s="1">
-        <v>-139.137000</v>
+        <v>-139.137</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>42081.937378</v>
+        <v>42081.937378000002</v>
       </c>
       <c r="BE12" s="1">
         <v>11.689427</v>
       </c>
       <c r="BF12" s="1">
-        <v>1304.740000</v>
+        <v>1304.74</v>
       </c>
       <c r="BG12" s="1">
-        <v>-222.087000</v>
+        <v>-222.08699999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>42092.777479</v>
+        <v>42092.777478999997</v>
       </c>
       <c r="BJ12" s="1">
-        <v>11.692438</v>
+        <v>11.692437999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1374.260000</v>
+        <v>1374.26</v>
       </c>
       <c r="BL12" s="1">
-        <v>-360.764000</v>
+        <v>-360.76400000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>42103.782183</v>
+        <v>42103.782183000003</v>
       </c>
       <c r="BO12" s="1">
-        <v>11.695495</v>
+        <v>11.695494999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1488.860000</v>
+        <v>1488.86</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-587.414000</v>
+        <v>-587.41399999999999</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>42114.264135</v>
+        <v>42114.264134999998</v>
       </c>
       <c r="BT12" s="1">
         <v>11.698407</v>
       </c>
       <c r="BU12" s="1">
-        <v>1622.020000</v>
+        <v>1622.02</v>
       </c>
       <c r="BV12" s="1">
-        <v>-843.638000</v>
+        <v>-843.63800000000003</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>42125.020377</v>
+        <v>42125.020377000001</v>
       </c>
       <c r="BY12" s="1">
         <v>11.701395</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1775.310000</v>
+        <v>1775.31</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1123.220000</v>
+        <v>-1123.22</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>42137.003722</v>
+        <v>42137.003722000001</v>
       </c>
       <c r="CD12" s="1">
         <v>11.704723</v>
       </c>
       <c r="CE12" s="1">
-        <v>2200.410000</v>
+        <v>2200.41</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1800.880000</v>
+        <v>-1800.88</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>41965.250061</v>
+        <v>41965.250060999999</v>
       </c>
       <c r="B13" s="1">
         <v>11.657014</v>
       </c>
       <c r="C13" s="1">
-        <v>1158.360000</v>
+        <v>1158.3599999999999</v>
       </c>
       <c r="D13" s="1">
-        <v>-242.600000</v>
+        <v>-242.6</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>41975.694351</v>
+        <v>41975.694350999998</v>
       </c>
       <c r="G13" s="1">
         <v>11.659915</v>
       </c>
       <c r="H13" s="1">
-        <v>1177.440000</v>
+        <v>1177.44</v>
       </c>
       <c r="I13" s="1">
-        <v>-205.287000</v>
+        <v>-205.28700000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>41986.179746</v>
+        <v>41986.179746000002</v>
       </c>
       <c r="L13" s="1">
-        <v>11.662828</v>
+        <v>11.662827999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>1202.370000</v>
+        <v>1202.3699999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-144.017000</v>
+        <v>-144.017</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>41997.009397</v>
+        <v>41997.009397000002</v>
       </c>
       <c r="Q13" s="1">
-        <v>11.665836</v>
+        <v>11.665836000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>1209.910000</v>
+        <v>1209.9100000000001</v>
       </c>
       <c r="S13" s="1">
-        <v>-123.957000</v>
+        <v>-123.95699999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>42007.507717</v>
@@ -3368,28 +3784,28 @@
         <v>11.668752</v>
       </c>
       <c r="W13" s="1">
-        <v>1217.290000</v>
+        <v>1217.29</v>
       </c>
       <c r="X13" s="1">
-        <v>-105.009000</v>
+        <v>-105.009</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>42018.011029</v>
+        <v>42018.011029000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>11.671670</v>
+        <v>11.671670000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1225.510000</v>
+        <v>1225.51</v>
       </c>
       <c r="AC13" s="1">
-        <v>-89.597100</v>
+        <v>-89.597099999999998</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>42028.549003</v>
@@ -3398,103 +3814,103 @@
         <v>11.674597</v>
       </c>
       <c r="AG13" s="1">
-        <v>1230.570000</v>
+        <v>1230.57</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.723300</v>
+        <v>-85.723299999999995</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>42039.397003</v>
+        <v>42039.397002999998</v>
       </c>
       <c r="AK13" s="1">
-        <v>11.677610</v>
+        <v>11.67761</v>
       </c>
       <c r="AL13" s="1">
-        <v>1238.050000</v>
+        <v>1238.05</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.592000</v>
+        <v>-89.591999999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>42050.100670</v>
+        <v>42050.10067</v>
       </c>
       <c r="AP13" s="1">
         <v>11.680584</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1246.170000</v>
+        <v>1246.17</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.796000</v>
+        <v>-101.79600000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>42060.943215</v>
+        <v>42060.943214999999</v>
       </c>
       <c r="AU13" s="1">
         <v>11.683595</v>
       </c>
       <c r="AV13" s="1">
-        <v>1256.220000</v>
+        <v>1256.22</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.399000</v>
+        <v>-121.399</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>42071.692016</v>
+        <v>42071.692016000001</v>
       </c>
       <c r="AZ13" s="1">
         <v>11.686581</v>
       </c>
       <c r="BA13" s="1">
-        <v>1264.680000</v>
+        <v>1264.68</v>
       </c>
       <c r="BB13" s="1">
-        <v>-139.132000</v>
+        <v>-139.13200000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>42082.302930</v>
+        <v>42082.302929999998</v>
       </c>
       <c r="BE13" s="1">
         <v>11.689529</v>
       </c>
       <c r="BF13" s="1">
-        <v>1304.730000</v>
+        <v>1304.73</v>
       </c>
       <c r="BG13" s="1">
-        <v>-222.131000</v>
+        <v>-222.131</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>42093.149446</v>
+        <v>42093.149446000003</v>
       </c>
       <c r="BJ13" s="1">
         <v>11.692542</v>
       </c>
       <c r="BK13" s="1">
-        <v>1374.270000</v>
+        <v>1374.27</v>
       </c>
       <c r="BL13" s="1">
-        <v>-360.784000</v>
+        <v>-360.78399999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>42104.206757</v>
@@ -3503,1360 +3919,1360 @@
         <v>11.695613</v>
       </c>
       <c r="BP13" s="1">
-        <v>1488.850000</v>
+        <v>1488.85</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-587.364000</v>
+        <v>-587.36400000000003</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>42114.687223</v>
+        <v>42114.687223000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>11.698524</v>
+        <v>11.698524000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1622.030000</v>
+        <v>1622.03</v>
       </c>
       <c r="BV13" s="1">
-        <v>-843.640000</v>
+        <v>-843.64</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>42125.444457</v>
+        <v>42125.444456999998</v>
       </c>
       <c r="BY13" s="1">
-        <v>11.701512</v>
+        <v>11.701511999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1775.220000</v>
+        <v>1775.22</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1123.360000</v>
+        <v>-1123.3599999999999</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>42137.523561</v>
+        <v>42137.523561000002</v>
       </c>
       <c r="CD13" s="1">
-        <v>11.704868</v>
+        <v>11.704867999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>2198.340000</v>
+        <v>2198.34</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1802.250000</v>
+        <v>-1802.25</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>41965.594285</v>
+        <v>41965.594284999999</v>
       </c>
       <c r="B14" s="1">
-        <v>11.657110</v>
+        <v>11.657109999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>1158.350000</v>
+        <v>1158.3499999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>-242.676000</v>
+        <v>-242.67599999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>41976.383262</v>
+        <v>41976.383262000003</v>
       </c>
       <c r="G14" s="1">
-        <v>11.660106</v>
+        <v>11.660106000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>1177.250000</v>
+        <v>1177.25</v>
       </c>
       <c r="I14" s="1">
-        <v>-203.480000</v>
+        <v>-203.48</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>41986.875170</v>
+        <v>41986.875169999999</v>
       </c>
       <c r="L14" s="1">
-        <v>11.663021</v>
+        <v>11.663021000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>1202.400000</v>
+        <v>1202.4000000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-143.995000</v>
+        <v>-143.995</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>41997.360564</v>
+        <v>41997.360564000002</v>
       </c>
       <c r="Q14" s="1">
-        <v>11.665933</v>
+        <v>11.665933000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>1209.950000</v>
+        <v>1209.95</v>
       </c>
       <c r="S14" s="1">
-        <v>-123.927000</v>
+        <v>-123.92700000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>42007.849460</v>
+        <v>42007.849459999998</v>
       </c>
       <c r="V14" s="1">
         <v>11.668847</v>
       </c>
       <c r="W14" s="1">
-        <v>1217.450000</v>
+        <v>1217.45</v>
       </c>
       <c r="X14" s="1">
-        <v>-104.857000</v>
+        <v>-104.857</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>42018.360679</v>
+        <v>42018.360678999998</v>
       </c>
       <c r="AA14" s="1">
-        <v>11.671767</v>
+        <v>11.671766999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1225.480000</v>
+        <v>1225.48</v>
       </c>
       <c r="AC14" s="1">
-        <v>-89.518200</v>
+        <v>-89.518199999999993</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>42029.201241</v>
+        <v>42029.201241000002</v>
       </c>
       <c r="AF14" s="1">
         <v>11.674778</v>
       </c>
       <c r="AG14" s="1">
-        <v>1230.590000</v>
+        <v>1230.5899999999999</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.713500</v>
+        <v>-85.713499999999996</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>42039.777436</v>
+        <v>42039.777435999997</v>
       </c>
       <c r="AK14" s="1">
         <v>11.677716</v>
       </c>
       <c r="AL14" s="1">
-        <v>1238.070000</v>
+        <v>1238.07</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.595000</v>
+        <v>-89.594999999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>42050.539132</v>
+        <v>42050.539131999998</v>
       </c>
       <c r="AP14" s="1">
         <v>11.680705</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1246.150000</v>
+        <v>1246.1500000000001</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.793000</v>
+        <v>-101.79300000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>42061.303806</v>
+        <v>42061.303806000004</v>
       </c>
       <c r="AU14" s="1">
-        <v>11.683696</v>
+        <v>11.683695999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1256.220000</v>
+        <v>1256.22</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.410000</v>
+        <v>-121.41</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>42072.069472</v>
+        <v>42072.069472000003</v>
       </c>
       <c r="AZ14" s="1">
         <v>11.686686</v>
       </c>
       <c r="BA14" s="1">
-        <v>1264.670000</v>
+        <v>1264.67</v>
       </c>
       <c r="BB14" s="1">
-        <v>-139.140000</v>
+        <v>-139.13999999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>42082.660546</v>
+        <v>42082.660545999999</v>
       </c>
       <c r="BE14" s="1">
-        <v>11.689628</v>
+        <v>11.689628000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1304.710000</v>
+        <v>1304.71</v>
       </c>
       <c r="BG14" s="1">
-        <v>-222.109000</v>
+        <v>-222.10900000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>42093.582451</v>
+        <v>42093.582451000002</v>
       </c>
       <c r="BJ14" s="1">
         <v>11.692662</v>
       </c>
       <c r="BK14" s="1">
-        <v>1374.250000</v>
+        <v>1374.25</v>
       </c>
       <c r="BL14" s="1">
-        <v>-360.789000</v>
+        <v>-360.78899999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>42104.601110</v>
+        <v>42104.601110000003</v>
       </c>
       <c r="BO14" s="1">
-        <v>11.695723</v>
+        <v>11.695722999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1488.840000</v>
+        <v>1488.84</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-587.393000</v>
+        <v>-587.39300000000003</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>42115.102871</v>
+        <v>42115.102871000003</v>
       </c>
       <c r="BT14" s="1">
-        <v>11.698640</v>
+        <v>11.698639999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1622.070000</v>
+        <v>1622.07</v>
       </c>
       <c r="BV14" s="1">
-        <v>-843.612000</v>
+        <v>-843.61199999999997</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>42125.861097</v>
+        <v>42125.861097000001</v>
       </c>
       <c r="BY14" s="1">
-        <v>11.701628</v>
+        <v>11.701627999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1775.400000</v>
+        <v>1775.4</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1123.400000</v>
+        <v>-1123.4000000000001</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>42138.031432</v>
+        <v>42138.031432000003</v>
       </c>
       <c r="CD14" s="1">
         <v>11.705009</v>
       </c>
       <c r="CE14" s="1">
-        <v>2200.230000</v>
+        <v>2200.23</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1803.750000</v>
+        <v>-1803.75</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>41966.276283</v>
+        <v>41966.276282999999</v>
       </c>
       <c r="B15" s="1">
         <v>11.657299</v>
       </c>
       <c r="C15" s="1">
-        <v>1158.470000</v>
+        <v>1158.47</v>
       </c>
       <c r="D15" s="1">
-        <v>-242.506000</v>
+        <v>-242.506</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>41976.726495</v>
+        <v>41976.726495000003</v>
       </c>
       <c r="G15" s="1">
         <v>11.660202</v>
       </c>
       <c r="H15" s="1">
-        <v>1176.450000</v>
+        <v>1176.45</v>
       </c>
       <c r="I15" s="1">
-        <v>-205.177000</v>
+        <v>-205.17699999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>41987.224188</v>
       </c>
       <c r="L15" s="1">
-        <v>11.663118</v>
+        <v>11.663118000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>1202.100000</v>
+        <v>1202.0999999999999</v>
       </c>
       <c r="N15" s="1">
-        <v>-144.006000</v>
+        <v>-144.006</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>41997.708258</v>
+        <v>41997.708257999999</v>
       </c>
       <c r="Q15" s="1">
-        <v>11.666030</v>
+        <v>11.666029999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>1210.020000</v>
+        <v>1210.02</v>
       </c>
       <c r="S15" s="1">
-        <v>-123.924000</v>
+        <v>-123.92400000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>42008.513603</v>
+        <v>42008.513602999999</v>
       </c>
       <c r="V15" s="1">
         <v>11.669032</v>
       </c>
       <c r="W15" s="1">
-        <v>1217.430000</v>
+        <v>1217.43</v>
       </c>
       <c r="X15" s="1">
-        <v>-104.884000</v>
+        <v>-104.884</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>42019.039702</v>
+        <v>42019.039702000002</v>
       </c>
       <c r="AA15" s="1">
-        <v>11.671955</v>
+        <v>11.671955000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>1225.610000</v>
+        <v>1225.6099999999999</v>
       </c>
       <c r="AC15" s="1">
-        <v>-89.525700</v>
+        <v>-89.525700000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>42029.578201</v>
+        <v>42029.578200999997</v>
       </c>
       <c r="AF15" s="1">
-        <v>11.674883</v>
+        <v>11.674882999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>1230.560000</v>
+        <v>1230.56</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.672500</v>
+        <v>-85.672499999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>42040.124635</v>
       </c>
       <c r="AK15" s="1">
-        <v>11.677812</v>
+        <v>11.677811999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1238.080000</v>
+        <v>1238.08</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.556600</v>
+        <v>-89.556600000000003</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>42050.902205</v>
+        <v>42050.902204999999</v>
       </c>
       <c r="AP15" s="1">
         <v>11.680806</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1246.170000</v>
+        <v>1246.17</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.811000</v>
+        <v>-101.81100000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>42061.672333</v>
+        <v>42061.672333000002</v>
       </c>
       <c r="AU15" s="1">
-        <v>11.683798</v>
+        <v>11.683797999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1256.240000</v>
+        <v>1256.24</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.436000</v>
+        <v>-121.43600000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>42072.504004</v>
+        <v>42072.504004000002</v>
       </c>
       <c r="AZ15" s="1">
         <v>11.686807</v>
       </c>
       <c r="BA15" s="1">
-        <v>1264.660000</v>
+        <v>1264.6600000000001</v>
       </c>
       <c r="BB15" s="1">
-        <v>-139.127000</v>
+        <v>-139.12700000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>42083.090614</v>
+        <v>42083.090614000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>11.689747</v>
+        <v>11.689747000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1304.730000</v>
+        <v>1304.73</v>
       </c>
       <c r="BG15" s="1">
-        <v>-222.128000</v>
+        <v>-222.12799999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>42093.926210</v>
+        <v>42093.926209999998</v>
       </c>
       <c r="BJ15" s="1">
         <v>11.692757</v>
       </c>
       <c r="BK15" s="1">
-        <v>1374.270000</v>
+        <v>1374.27</v>
       </c>
       <c r="BL15" s="1">
-        <v>-360.768000</v>
+        <v>-360.76799999999997</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>42105.023669</v>
+        <v>42105.023669000002</v>
       </c>
       <c r="BO15" s="1">
-        <v>11.695840</v>
+        <v>11.69584</v>
       </c>
       <c r="BP15" s="1">
-        <v>1488.800000</v>
+        <v>1488.8</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-587.401000</v>
+        <v>-587.40099999999995</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>42115.534421</v>
+        <v>42115.534420999997</v>
       </c>
       <c r="BT15" s="1">
-        <v>11.698760</v>
+        <v>11.69876</v>
       </c>
       <c r="BU15" s="1">
-        <v>1622.070000</v>
+        <v>1622.07</v>
       </c>
       <c r="BV15" s="1">
-        <v>-843.602000</v>
+        <v>-843.60199999999998</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>42126.309479</v>
+        <v>42126.309479000003</v>
       </c>
       <c r="BY15" s="1">
         <v>11.701753</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1775.520000</v>
+        <v>1775.52</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1123.360000</v>
+        <v>-1123.3599999999999</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>42138.560168</v>
+        <v>42138.560168000004</v>
       </c>
       <c r="CD15" s="1">
-        <v>11.705156</v>
+        <v>11.705156000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>2199.490000</v>
+        <v>2199.4899999999998</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1800.930000</v>
+        <v>-1800.93</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>41966.618559</v>
+        <v>41966.618559000002</v>
       </c>
       <c r="B16" s="1">
         <v>11.657394</v>
       </c>
       <c r="C16" s="1">
-        <v>1158.350000</v>
+        <v>1158.3499999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-242.312000</v>
+        <v>-242.31200000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>41977.075186</v>
+        <v>41977.075186000002</v>
       </c>
       <c r="G16" s="1">
         <v>11.660299</v>
       </c>
       <c r="H16" s="1">
-        <v>1177.650000</v>
+        <v>1177.6500000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-204.815000</v>
+        <v>-204.815</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>41987.882542</v>
+        <v>41987.882541999999</v>
       </c>
       <c r="L16" s="1">
-        <v>11.663301</v>
+        <v>11.663301000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>1202.350000</v>
+        <v>1202.3499999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-144.299000</v>
+        <v>-144.29900000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>41998.363970</v>
+        <v>41998.363969999999</v>
       </c>
       <c r="Q16" s="1">
         <v>11.666212</v>
       </c>
       <c r="R16" s="1">
-        <v>1210.000000</v>
+        <v>1210</v>
       </c>
       <c r="S16" s="1">
-        <v>-124.034000</v>
+        <v>-124.03400000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>42008.882165</v>
+        <v>42008.882165000003</v>
       </c>
       <c r="V16" s="1">
         <v>11.669134</v>
       </c>
       <c r="W16" s="1">
-        <v>1217.450000</v>
+        <v>1217.45</v>
       </c>
       <c r="X16" s="1">
-        <v>-105.060000</v>
+        <v>-105.06</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>42019.404601</v>
+        <v>42019.404601000002</v>
       </c>
       <c r="AA16" s="1">
-        <v>11.672057</v>
+        <v>11.672057000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>1225.620000</v>
+        <v>1225.6199999999999</v>
       </c>
       <c r="AC16" s="1">
-        <v>-89.595500</v>
+        <v>-89.595500000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>42029.921927</v>
+        <v>42029.921927000003</v>
       </c>
       <c r="AF16" s="1">
-        <v>11.674978</v>
+        <v>11.674977999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>1230.590000</v>
+        <v>1230.5899999999999</v>
       </c>
       <c r="AH16" s="1">
-        <v>-85.745900</v>
+        <v>-85.745900000000006</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>42040.472329</v>
+        <v>42040.472328999997</v>
       </c>
       <c r="AK16" s="1">
         <v>11.677909</v>
       </c>
       <c r="AL16" s="1">
-        <v>1238.080000</v>
+        <v>1238.08</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.566200</v>
+        <v>-89.566199999999995</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>42051.262300</v>
+        <v>42051.262300000002</v>
       </c>
       <c r="AP16" s="1">
         <v>11.680906</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1246.150000</v>
+        <v>1246.1500000000001</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.799000</v>
+        <v>-101.79900000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>42062.100877</v>
+        <v>42062.100876999997</v>
       </c>
       <c r="AU16" s="1">
-        <v>11.683917</v>
+        <v>11.683916999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1256.190000</v>
+        <v>1256.19</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.415000</v>
+        <v>-121.41500000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>42072.788708</v>
       </c>
       <c r="AZ16" s="1">
-        <v>11.686886</v>
+        <v>11.686885999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1264.680000</v>
+        <v>1264.68</v>
       </c>
       <c r="BB16" s="1">
-        <v>-139.134000</v>
+        <v>-139.13399999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>42083.382722</v>
+        <v>42083.382722000002</v>
       </c>
       <c r="BE16" s="1">
         <v>11.689829</v>
       </c>
       <c r="BF16" s="1">
-        <v>1304.720000</v>
+        <v>1304.72</v>
       </c>
       <c r="BG16" s="1">
-        <v>-222.121000</v>
+        <v>-222.12100000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>42094.301188</v>
+        <v>42094.301187999998</v>
       </c>
       <c r="BJ16" s="1">
-        <v>11.692861</v>
+        <v>11.692861000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1374.270000</v>
+        <v>1374.27</v>
       </c>
       <c r="BL16" s="1">
-        <v>-360.814000</v>
+        <v>-360.81400000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>42105.420468</v>
+        <v>42105.420467999997</v>
       </c>
       <c r="BO16" s="1">
-        <v>11.695950</v>
+        <v>11.69595</v>
       </c>
       <c r="BP16" s="1">
-        <v>1488.800000</v>
+        <v>1488.8</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-587.361000</v>
+        <v>-587.36099999999999</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>42115.946146</v>
+        <v>42115.946146000002</v>
       </c>
       <c r="BT16" s="1">
         <v>11.698874</v>
       </c>
       <c r="BU16" s="1">
-        <v>1622.030000</v>
+        <v>1622.03</v>
       </c>
       <c r="BV16" s="1">
-        <v>-843.638000</v>
+        <v>-843.63800000000003</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>42126.748968</v>
       </c>
       <c r="BY16" s="1">
-        <v>11.701875</v>
+        <v>11.701874999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1775.390000</v>
+        <v>1775.39</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1123.340000</v>
+        <v>-1123.3399999999999</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>42139.093369</v>
+        <v>42139.093369000002</v>
       </c>
       <c r="CD16" s="1">
         <v>11.705304</v>
       </c>
       <c r="CE16" s="1">
-        <v>2198.840000</v>
+        <v>2198.84</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1803.760000</v>
+        <v>-1803.76</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>41966.964767</v>
+        <v>41966.964766999998</v>
       </c>
       <c r="B17" s="1">
-        <v>11.657490</v>
+        <v>11.657489999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>1158.400000</v>
+        <v>1158.4000000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-242.685000</v>
+        <v>-242.685</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>41977.732909</v>
+        <v>41977.732908999998</v>
       </c>
       <c r="G17" s="1">
-        <v>11.660481</v>
+        <v>11.660481000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>1176.820000</v>
+        <v>1176.82</v>
       </c>
       <c r="I17" s="1">
-        <v>-204.415000</v>
+        <v>-204.41499999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>41988.262446</v>
+        <v>41988.262446000001</v>
       </c>
       <c r="L17" s="1">
         <v>11.663406</v>
       </c>
       <c r="M17" s="1">
-        <v>1202.420000</v>
+        <v>1202.42</v>
       </c>
       <c r="N17" s="1">
-        <v>-144.139000</v>
+        <v>-144.13900000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>41998.753858</v>
+        <v>41998.753857999996</v>
       </c>
       <c r="Q17" s="1">
         <v>11.666321</v>
       </c>
       <c r="R17" s="1">
-        <v>1209.930000</v>
+        <v>1209.93</v>
       </c>
       <c r="S17" s="1">
-        <v>-124.022000</v>
+        <v>-124.02200000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>42009.226387</v>
+        <v>42009.226387000002</v>
       </c>
       <c r="V17" s="1">
-        <v>11.669230</v>
+        <v>11.669230000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>1217.600000</v>
+        <v>1217.5999999999999</v>
       </c>
       <c r="X17" s="1">
-        <v>-105.024000</v>
+        <v>-105.024</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>42019.753445</v>
+        <v>42019.753445000002</v>
       </c>
       <c r="AA17" s="1">
-        <v>11.672154</v>
+        <v>11.672154000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1225.560000</v>
+        <v>1225.56</v>
       </c>
       <c r="AC17" s="1">
-        <v>-89.694900</v>
+        <v>-89.694900000000004</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>42030.267640</v>
+        <v>42030.267639999998</v>
       </c>
       <c r="AF17" s="1">
         <v>11.675074</v>
       </c>
       <c r="AG17" s="1">
-        <v>1230.590000</v>
+        <v>1230.5899999999999</v>
       </c>
       <c r="AH17" s="1">
-        <v>-85.740000</v>
+        <v>-85.74</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>42040.903354</v>
+        <v>42040.903354000002</v>
       </c>
       <c r="AK17" s="1">
         <v>11.678029</v>
       </c>
       <c r="AL17" s="1">
-        <v>1238.030000</v>
+        <v>1238.03</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.592800</v>
+        <v>-89.592799999999997</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>42051.689850</v>
+        <v>42051.689850000002</v>
       </c>
       <c r="AP17" s="1">
         <v>11.681025</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1246.180000</v>
+        <v>1246.18</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.823000</v>
+        <v>-101.82299999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>42062.398012</v>
+        <v>42062.398011999998</v>
       </c>
       <c r="AU17" s="1">
         <v>11.683999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1256.220000</v>
+        <v>1256.22</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.407000</v>
+        <v>-121.407</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>42073.145823</v>
+        <v>42073.145822999999</v>
       </c>
       <c r="AZ17" s="1">
         <v>11.686985</v>
       </c>
       <c r="BA17" s="1">
-        <v>1264.670000</v>
+        <v>1264.67</v>
       </c>
       <c r="BB17" s="1">
-        <v>-139.127000</v>
+        <v>-139.12700000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>42083.748865</v>
+        <v>42083.748865000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>11.689930</v>
+        <v>11.68993</v>
       </c>
       <c r="BF17" s="1">
-        <v>1304.720000</v>
+        <v>1304.72</v>
       </c>
       <c r="BG17" s="1">
-        <v>-222.145000</v>
+        <v>-222.14500000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>42094.677618</v>
+        <v>42094.677618000002</v>
       </c>
       <c r="BJ17" s="1">
         <v>11.692966</v>
       </c>
       <c r="BK17" s="1">
-        <v>1374.300000</v>
+        <v>1374.3</v>
       </c>
       <c r="BL17" s="1">
-        <v>-360.780000</v>
+        <v>-360.78</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>42105.836116</v>
+        <v>42105.836115999999</v>
       </c>
       <c r="BO17" s="1">
         <v>11.696066</v>
       </c>
       <c r="BP17" s="1">
-        <v>1488.860000</v>
+        <v>1488.86</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-587.414000</v>
+        <v>-587.41399999999999</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>42116.376597</v>
+        <v>42116.376597000002</v>
       </c>
       <c r="BT17" s="1">
         <v>11.698993</v>
       </c>
       <c r="BU17" s="1">
-        <v>1622.040000</v>
+        <v>1622.04</v>
       </c>
       <c r="BV17" s="1">
-        <v>-843.488000</v>
+        <v>-843.48800000000006</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>42127.153697</v>
+        <v>42127.153697000002</v>
       </c>
       <c r="BY17" s="1">
-        <v>11.701987</v>
+        <v>11.701987000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1775.360000</v>
+        <v>1775.36</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1123.290000</v>
+        <v>-1123.29</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>42139.639494</v>
+        <v>42139.639494000003</v>
       </c>
       <c r="CD17" s="1">
-        <v>11.705455</v>
+        <v>11.705455000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>2201.240000</v>
+        <v>2201.2399999999998</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1801.450000</v>
+        <v>-1801.45</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>41967.625943</v>
+        <v>41967.625942999999</v>
       </c>
       <c r="B18" s="1">
         <v>11.657674</v>
       </c>
       <c r="C18" s="1">
-        <v>1158.060000</v>
+        <v>1158.06</v>
       </c>
       <c r="D18" s="1">
-        <v>-242.337000</v>
+        <v>-242.33699999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>41978.108432</v>
+        <v>41978.108432000001</v>
       </c>
       <c r="G18" s="1">
         <v>11.660586</v>
       </c>
       <c r="H18" s="1">
-        <v>1176.930000</v>
+        <v>1176.93</v>
       </c>
       <c r="I18" s="1">
-        <v>-204.064000</v>
+        <v>-204.06399999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>41988.608655</v>
+        <v>41988.608655000004</v>
       </c>
       <c r="L18" s="1">
-        <v>11.663502</v>
+        <v>11.663501999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1202.350000</v>
+        <v>1202.3499999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-143.992000</v>
+        <v>-143.99199999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>41999.102513</v>
+        <v>41999.102512999998</v>
       </c>
       <c r="Q18" s="1">
-        <v>11.666417</v>
+        <v>11.666416999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>1209.940000</v>
+        <v>1209.94</v>
       </c>
       <c r="S18" s="1">
-        <v>-123.974000</v>
+        <v>-123.974</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>42009.576066</v>
+        <v>42009.576066000001</v>
       </c>
       <c r="V18" s="1">
-        <v>11.669327</v>
+        <v>11.669326999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>1217.520000</v>
+        <v>1217.52</v>
       </c>
       <c r="X18" s="1">
-        <v>-105.024000</v>
+        <v>-105.024</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>42020.317428</v>
+        <v>42020.317428000002</v>
       </c>
       <c r="AA18" s="1">
-        <v>11.672310</v>
+        <v>11.67231</v>
       </c>
       <c r="AB18" s="1">
-        <v>1225.570000</v>
+        <v>1225.57</v>
       </c>
       <c r="AC18" s="1">
-        <v>-89.549300</v>
+        <v>-89.549300000000002</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>42030.702166</v>
+        <v>42030.702166000003</v>
       </c>
       <c r="AF18" s="1">
         <v>11.675195</v>
       </c>
       <c r="AG18" s="1">
-        <v>1230.570000</v>
+        <v>1230.57</v>
       </c>
       <c r="AH18" s="1">
-        <v>-85.702600</v>
+        <v>-85.702600000000004</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>42041.171195</v>
+        <v>42041.171195000003</v>
       </c>
       <c r="AK18" s="1">
         <v>11.678103</v>
       </c>
       <c r="AL18" s="1">
-        <v>1238.020000</v>
+        <v>1238.02</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.578100</v>
+        <v>-89.578100000000006</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>42052.074259</v>
+        <v>42052.074259000001</v>
       </c>
       <c r="AP18" s="1">
         <v>11.681132</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1246.190000</v>
+        <v>1246.19</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.824000</v>
+        <v>-101.824</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>42062.764028</v>
+        <v>42062.764027999998</v>
       </c>
       <c r="AU18" s="1">
         <v>11.684101</v>
       </c>
       <c r="AV18" s="1">
-        <v>1256.210000</v>
+        <v>1256.21</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.404000</v>
+        <v>-121.404</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>42073.506910</v>
+        <v>42073.506909999996</v>
       </c>
       <c r="AZ18" s="1">
         <v>11.687085</v>
       </c>
       <c r="BA18" s="1">
-        <v>1264.690000</v>
+        <v>1264.69</v>
       </c>
       <c r="BB18" s="1">
-        <v>-139.140000</v>
+        <v>-139.13999999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>42084.106880</v>
+        <v>42084.106879999999</v>
       </c>
       <c r="BE18" s="1">
-        <v>11.690030</v>
+        <v>11.69003</v>
       </c>
       <c r="BF18" s="1">
-        <v>1304.740000</v>
+        <v>1304.74</v>
       </c>
       <c r="BG18" s="1">
-        <v>-222.121000</v>
+        <v>-222.12100000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>42095.427074</v>
+        <v>42095.427073999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>11.693174</v>
+        <v>11.693174000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1374.280000</v>
+        <v>1374.28</v>
       </c>
       <c r="BL18" s="1">
-        <v>-360.778000</v>
+        <v>-360.77800000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>42106.238371</v>
+        <v>42106.238370999999</v>
       </c>
       <c r="BO18" s="1">
         <v>11.696177</v>
       </c>
       <c r="BP18" s="1">
-        <v>1488.850000</v>
+        <v>1488.85</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-587.398000</v>
+        <v>-587.39800000000002</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>42116.804645</v>
+        <v>42116.804644999997</v>
       </c>
       <c r="BT18" s="1">
         <v>11.699112</v>
       </c>
       <c r="BU18" s="1">
-        <v>1622.020000</v>
+        <v>1622.02</v>
       </c>
       <c r="BV18" s="1">
-        <v>-843.629000</v>
+        <v>-843.62900000000002</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>42127.602551</v>
+        <v>42127.602551000004</v>
       </c>
       <c r="BY18" s="1">
         <v>11.702112</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1775.450000</v>
+        <v>1775.45</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1123.390000</v>
+        <v>-1123.3900000000001</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>42140.492616</v>
+        <v>42140.492616000003</v>
       </c>
       <c r="CD18" s="1">
-        <v>11.705692</v>
+        <v>11.705692000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>2200.230000</v>
+        <v>2200.23</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1803.760000</v>
+        <v>-1803.76</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>41967.986020</v>
+        <v>41967.986019999997</v>
       </c>
       <c r="B19" s="1">
         <v>11.657774</v>
       </c>
       <c r="C19" s="1">
-        <v>1158.430000</v>
+        <v>1158.43</v>
       </c>
       <c r="D19" s="1">
-        <v>-242.469000</v>
+        <v>-242.46899999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>41978.454091</v>
@@ -4865,285 +5281,285 @@
         <v>11.660682</v>
       </c>
       <c r="H19" s="1">
-        <v>1176.970000</v>
+        <v>1176.97</v>
       </c>
       <c r="I19" s="1">
-        <v>-204.006000</v>
+        <v>-204.006</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>41988.955389</v>
+        <v>41988.955389000002</v>
       </c>
       <c r="L19" s="1">
         <v>11.663599</v>
       </c>
       <c r="M19" s="1">
-        <v>1202.160000</v>
+        <v>1202.1600000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-144.082000</v>
+        <v>-144.08199999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>41999.452689</v>
+        <v>41999.452688999998</v>
       </c>
       <c r="Q19" s="1">
         <v>11.666515</v>
       </c>
       <c r="R19" s="1">
-        <v>1209.920000</v>
+        <v>1209.92</v>
       </c>
       <c r="S19" s="1">
-        <v>-123.942000</v>
+        <v>-123.94199999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>42009.998658</v>
+        <v>42009.998657999997</v>
       </c>
       <c r="V19" s="1">
         <v>11.669444</v>
       </c>
       <c r="W19" s="1">
-        <v>1217.430000</v>
+        <v>1217.43</v>
       </c>
       <c r="X19" s="1">
-        <v>-104.931000</v>
+        <v>-104.931</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>42020.452806</v>
+        <v>42020.452806000001</v>
       </c>
       <c r="AA19" s="1">
         <v>11.672348</v>
       </c>
       <c r="AB19" s="1">
-        <v>1225.510000</v>
+        <v>1225.51</v>
       </c>
       <c r="AC19" s="1">
-        <v>-89.413600</v>
+        <v>-89.413600000000002</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>42030.983896</v>
+        <v>42030.983895999998</v>
       </c>
       <c r="AF19" s="1">
-        <v>11.675273</v>
+        <v>11.675273000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1230.600000</v>
+        <v>1230.5999999999999</v>
       </c>
       <c r="AH19" s="1">
-        <v>-85.725700</v>
+        <v>-85.725700000000003</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>42041.520378</v>
+        <v>42041.520378000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>11.678200</v>
+        <v>11.6782</v>
       </c>
       <c r="AL19" s="1">
-        <v>1238.050000</v>
+        <v>1238.05</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.595800</v>
+        <v>-89.595799999999997</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>42052.344073</v>
       </c>
       <c r="AP19" s="1">
-        <v>11.681207</v>
+        <v>11.681207000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1246.150000</v>
+        <v>1246.1500000000001</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.790000</v>
+        <v>-101.79</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>42063.128093</v>
+        <v>42063.128092999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>11.684202</v>
+        <v>11.684202000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1256.210000</v>
+        <v>1256.21</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.430000</v>
+        <v>-121.43</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>42074.222636</v>
+        <v>42074.222635999999</v>
       </c>
       <c r="AZ19" s="1">
         <v>11.687284</v>
       </c>
       <c r="BA19" s="1">
-        <v>1264.730000</v>
+        <v>1264.73</v>
       </c>
       <c r="BB19" s="1">
-        <v>-139.130000</v>
+        <v>-139.13</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>42084.834016</v>
+        <v>42084.834016000001</v>
       </c>
       <c r="BE19" s="1">
         <v>11.690232</v>
       </c>
       <c r="BF19" s="1">
-        <v>1304.740000</v>
+        <v>1304.74</v>
       </c>
       <c r="BG19" s="1">
-        <v>-222.142000</v>
+        <v>-222.142</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>42095.803072</v>
+        <v>42095.803072000002</v>
       </c>
       <c r="BJ19" s="1">
         <v>11.693279</v>
       </c>
       <c r="BK19" s="1">
-        <v>1374.280000</v>
+        <v>1374.28</v>
       </c>
       <c r="BL19" s="1">
-        <v>-360.814000</v>
+        <v>-360.81400000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>42106.658018</v>
+        <v>42106.658018000002</v>
       </c>
       <c r="BO19" s="1">
         <v>11.696294</v>
       </c>
       <c r="BP19" s="1">
-        <v>1488.860000</v>
+        <v>1488.86</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-587.430000</v>
+        <v>-587.42999999999995</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>42117.215829</v>
+        <v>42117.215829000001</v>
       </c>
       <c r="BT19" s="1">
         <v>11.699227</v>
       </c>
       <c r="BU19" s="1">
-        <v>1622.050000</v>
+        <v>1622.05</v>
       </c>
       <c r="BV19" s="1">
-        <v>-843.541000</v>
+        <v>-843.54100000000005</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>42128.365397</v>
+        <v>42128.365397000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>11.702324</v>
+        <v>11.702324000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1775.530000</v>
+        <v>1775.53</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1123.260000</v>
+        <v>-1123.26</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>42140.715799</v>
+        <v>42140.715798999998</v>
       </c>
       <c r="CD19" s="1">
-        <v>11.705754</v>
+        <v>11.705754000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>2199.700000</v>
+        <v>2199.6999999999998</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1803.440000</v>
+        <v>-1803.44</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>41968.331209</v>
+        <v>41968.331209000004</v>
       </c>
       <c r="B20" s="1">
-        <v>11.657870</v>
+        <v>11.657870000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1158.230000</v>
+        <v>1158.23</v>
       </c>
       <c r="D20" s="1">
-        <v>-242.470000</v>
+        <v>-242.47</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>41978.797293</v>
+        <v>41978.797293000003</v>
       </c>
       <c r="G20" s="1">
         <v>11.660777</v>
       </c>
       <c r="H20" s="1">
-        <v>1177.270000</v>
+        <v>1177.27</v>
       </c>
       <c r="I20" s="1">
-        <v>-204.369000</v>
+        <v>-204.369</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>41989.381919</v>
+        <v>41989.381918999999</v>
       </c>
       <c r="L20" s="1">
         <v>11.663717</v>
       </c>
       <c r="M20" s="1">
-        <v>1202.290000</v>
+        <v>1202.29</v>
       </c>
       <c r="N20" s="1">
-        <v>-144.024000</v>
+        <v>-144.024</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>41999.881232</v>
@@ -5152,43 +5568,43 @@
         <v>11.666634</v>
       </c>
       <c r="R20" s="1">
-        <v>1209.920000</v>
+        <v>1209.92</v>
       </c>
       <c r="S20" s="1">
-        <v>-123.847000</v>
+        <v>-123.84699999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>42010.277874</v>
+        <v>42010.277873999999</v>
       </c>
       <c r="V20" s="1">
-        <v>11.669522</v>
+        <v>11.669522000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>1217.520000</v>
+        <v>1217.52</v>
       </c>
       <c r="X20" s="1">
-        <v>-105.194000</v>
+        <v>-105.194</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>42020.801027</v>
+        <v>42020.801027000001</v>
       </c>
       <c r="AA20" s="1">
         <v>11.672445</v>
       </c>
       <c r="AB20" s="1">
-        <v>1225.590000</v>
+        <v>1225.5899999999999</v>
       </c>
       <c r="AC20" s="1">
-        <v>-89.524400</v>
+        <v>-89.5244</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>42031.327093</v>
@@ -5197,58 +5613,58 @@
         <v>11.675369</v>
       </c>
       <c r="AG20" s="1">
-        <v>1230.570000</v>
+        <v>1230.57</v>
       </c>
       <c r="AH20" s="1">
-        <v>-85.698700</v>
+        <v>-85.698700000000002</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>42041.869267</v>
+        <v>42041.869267000002</v>
       </c>
       <c r="AK20" s="1">
-        <v>11.678297</v>
+        <v>11.678297000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>1238.030000</v>
+        <v>1238.03</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.570100</v>
+        <v>-89.570099999999996</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>42053.064762</v>
+        <v>42053.064762000002</v>
       </c>
       <c r="AP20" s="1">
         <v>11.681407</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1246.170000</v>
+        <v>1246.17</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.794000</v>
+        <v>-101.794</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>42063.864652</v>
+        <v>42063.864651999997</v>
       </c>
       <c r="AU20" s="1">
         <v>11.684407</v>
       </c>
       <c r="AV20" s="1">
-        <v>1256.200000</v>
+        <v>1256.2</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.410000</v>
+        <v>-121.41</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>42074.583693</v>
@@ -5257,88 +5673,88 @@
         <v>11.687384</v>
       </c>
       <c r="BA20" s="1">
-        <v>1264.670000</v>
+        <v>1264.67</v>
       </c>
       <c r="BB20" s="1">
-        <v>-139.125000</v>
+        <v>-139.125</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>42085.189646</v>
+        <v>42085.189645999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>11.690330</v>
+        <v>11.690329999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1304.730000</v>
+        <v>1304.73</v>
       </c>
       <c r="BG20" s="1">
-        <v>-222.102000</v>
+        <v>-222.102</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>42096.179008</v>
+        <v>42096.179007999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>11.693383</v>
+        <v>11.693383000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1374.280000</v>
+        <v>1374.28</v>
       </c>
       <c r="BL20" s="1">
-        <v>-360.787000</v>
+        <v>-360.78699999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>42107.371760</v>
+        <v>42107.371760000002</v>
       </c>
       <c r="BO20" s="1">
-        <v>11.696492</v>
+        <v>11.696491999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1488.780000</v>
+        <v>1488.78</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-587.446000</v>
+        <v>-587.44600000000003</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>42117.752501</v>
+        <v>42117.752501000003</v>
       </c>
       <c r="BT20" s="1">
-        <v>11.699376</v>
+        <v>11.699376000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1622.000000</v>
+        <v>1622</v>
       </c>
       <c r="BV20" s="1">
-        <v>-843.531000</v>
+        <v>-843.53099999999995</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>42128.475545</v>
+        <v>42128.475545000001</v>
       </c>
       <c r="BY20" s="1">
         <v>11.702354</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1775.380000</v>
+        <v>1775.38</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1123.210000</v>
+        <v>-1123.21</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>42141.236115</v>
@@ -5347,951 +5763,951 @@
         <v>11.705899</v>
       </c>
       <c r="CE20" s="1">
-        <v>2201.100000</v>
+        <v>2201.1</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1802.560000</v>
+        <v>-1802.56</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>41968.672954</v>
+        <v>41968.672954000001</v>
       </c>
       <c r="B21" s="1">
-        <v>11.657965</v>
+        <v>11.657965000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>1158.500000</v>
+        <v>1158.5</v>
       </c>
       <c r="D21" s="1">
-        <v>-242.861000</v>
+        <v>-242.86099999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>41979.220410</v>
+        <v>41979.220410000002</v>
       </c>
       <c r="G21" s="1">
         <v>11.660895</v>
       </c>
       <c r="H21" s="1">
-        <v>1177.440000</v>
+        <v>1177.44</v>
       </c>
       <c r="I21" s="1">
-        <v>-204.642000</v>
+        <v>-204.642</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>41989.665132</v>
+        <v>41989.665132000002</v>
       </c>
       <c r="L21" s="1">
         <v>11.663796</v>
       </c>
       <c r="M21" s="1">
-        <v>1202.360000</v>
+        <v>1202.3599999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-143.994000</v>
+        <v>-143.994</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>42000.159984</v>
+        <v>42000.159983999998</v>
       </c>
       <c r="Q21" s="1">
-        <v>11.666711</v>
+        <v>11.666710999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1209.990000</v>
+        <v>1209.99</v>
       </c>
       <c r="S21" s="1">
-        <v>-123.941000</v>
+        <v>-123.941</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>42010.622108</v>
+        <v>42010.622108000003</v>
       </c>
       <c r="V21" s="1">
-        <v>11.669617</v>
+        <v>11.669617000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>1217.610000</v>
+        <v>1217.6099999999999</v>
       </c>
       <c r="X21" s="1">
-        <v>-105.023000</v>
+        <v>-105.023</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>42021.148196</v>
+        <v>42021.148196000002</v>
       </c>
       <c r="AA21" s="1">
-        <v>11.672541</v>
+        <v>11.672541000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>1225.680000</v>
+        <v>1225.68</v>
       </c>
       <c r="AC21" s="1">
-        <v>-89.529300</v>
+        <v>-89.529300000000006</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>42031.675286</v>
+        <v>42031.675285999998</v>
       </c>
       <c r="AF21" s="1">
-        <v>11.675465</v>
+        <v>11.675465000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1230.590000</v>
+        <v>1230.5899999999999</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.702800</v>
+        <v>-85.702799999999996</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>42042.566935</v>
+        <v>42042.566935000003</v>
       </c>
       <c r="AK21" s="1">
-        <v>11.678491</v>
+        <v>11.678490999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1238.030000</v>
+        <v>1238.03</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.581300</v>
+        <v>-89.581299999999999</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>42053.455608</v>
+        <v>42053.455607999997</v>
       </c>
       <c r="AP21" s="1">
-        <v>11.681515</v>
+        <v>11.681514999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1246.170000</v>
+        <v>1246.17</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.815000</v>
+        <v>-101.815</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>42064.249050</v>
+        <v>42064.249049999999</v>
       </c>
       <c r="AU21" s="1">
         <v>11.684514</v>
       </c>
       <c r="AV21" s="1">
-        <v>1256.210000</v>
+        <v>1256.21</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.414000</v>
+        <v>-121.414</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>42074.941804</v>
+        <v>42074.941804000002</v>
       </c>
       <c r="AZ21" s="1">
         <v>11.687484</v>
       </c>
       <c r="BA21" s="1">
-        <v>1264.690000</v>
+        <v>1264.69</v>
       </c>
       <c r="BB21" s="1">
-        <v>-139.115000</v>
+        <v>-139.11500000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>42085.863214</v>
+        <v>42085.863213999997</v>
       </c>
       <c r="BE21" s="1">
-        <v>11.690518</v>
+        <v>11.690518000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1304.730000</v>
+        <v>1304.73</v>
       </c>
       <c r="BG21" s="1">
-        <v>-222.131000</v>
+        <v>-222.131</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>42096.868447</v>
+        <v>42096.868447000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>11.693575</v>
+        <v>11.693574999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1374.290000</v>
+        <v>1374.29</v>
       </c>
       <c r="BL21" s="1">
-        <v>-360.748000</v>
+        <v>-360.74799999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>42107.482870</v>
+        <v>42107.48287</v>
       </c>
       <c r="BO21" s="1">
-        <v>11.696523</v>
+        <v>11.696522999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1488.850000</v>
+        <v>1488.85</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-587.437000</v>
+        <v>-587.43700000000001</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>42118.071459</v>
+        <v>42118.071458999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>11.699464</v>
+        <v>11.699464000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1622.010000</v>
+        <v>1622.01</v>
       </c>
       <c r="BV21" s="1">
-        <v>-843.486000</v>
+        <v>-843.48599999999999</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>42128.891188</v>
+        <v>42128.891188000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>11.702470</v>
+        <v>11.70247</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1775.450000</v>
+        <v>1775.45</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1123.350000</v>
+        <v>-1123.3499999999999</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>42141.754405</v>
       </c>
       <c r="CD21" s="1">
-        <v>11.706043</v>
+        <v>11.706042999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>2199.950000</v>
+        <v>2199.9499999999998</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1801.080000</v>
+        <v>-1801.08</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>41969.097528</v>
+        <v>41969.097527999998</v>
       </c>
       <c r="B22" s="1">
         <v>11.658083</v>
       </c>
       <c r="C22" s="1">
-        <v>1158.010000</v>
+        <v>1158.01</v>
       </c>
       <c r="D22" s="1">
-        <v>-242.575000</v>
+        <v>-242.57499999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>41979.492682</v>
+        <v>41979.492681999996</v>
       </c>
       <c r="G22" s="1">
-        <v>11.660970</v>
+        <v>11.660970000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>1177.120000</v>
+        <v>1177.1199999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-203.715000</v>
+        <v>-203.715</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>41990.007869</v>
+        <v>41990.007869000001</v>
       </c>
       <c r="L22" s="1">
         <v>11.663891</v>
       </c>
       <c r="M22" s="1">
-        <v>1202.430000</v>
+        <v>1202.43</v>
       </c>
       <c r="N22" s="1">
-        <v>-143.992000</v>
+        <v>-143.99199999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>42000.505727</v>
+        <v>42000.505727000003</v>
       </c>
       <c r="Q22" s="1">
         <v>11.666807</v>
       </c>
       <c r="R22" s="1">
-        <v>1209.950000</v>
+        <v>1209.95</v>
       </c>
       <c r="S22" s="1">
-        <v>-124.048000</v>
+        <v>-124.048</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>42010.966351</v>
+        <v>42010.966351000003</v>
       </c>
       <c r="V22" s="1">
         <v>11.669713</v>
       </c>
       <c r="W22" s="1">
-        <v>1217.610000</v>
+        <v>1217.6099999999999</v>
       </c>
       <c r="X22" s="1">
-        <v>-105.005000</v>
+        <v>-105.005</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>42021.846563</v>
+        <v>42021.846562999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>11.672735</v>
+        <v>11.672734999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>1225.650000</v>
+        <v>1225.6500000000001</v>
       </c>
       <c r="AC22" s="1">
-        <v>-89.586500</v>
+        <v>-89.586500000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>42032.368197</v>
+        <v>42032.368197000003</v>
       </c>
       <c r="AF22" s="1">
         <v>11.675658</v>
       </c>
       <c r="AG22" s="1">
-        <v>1230.580000</v>
+        <v>1230.58</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.712600</v>
+        <v>-85.712599999999995</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>42042.913142</v>
+        <v>42042.913141999998</v>
       </c>
       <c r="AK22" s="1">
         <v>11.678587</v>
       </c>
       <c r="AL22" s="1">
-        <v>1238.060000</v>
+        <v>1238.06</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.571700</v>
+        <v>-89.571700000000007</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>42053.812765</v>
+        <v>42053.812765000002</v>
       </c>
       <c r="AP22" s="1">
-        <v>11.681615</v>
+        <v>11.681615000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1246.170000</v>
+        <v>1246.17</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.819000</v>
+        <v>-101.819</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>42064.612122</v>
+        <v>42064.612121999999</v>
       </c>
       <c r="AU22" s="1">
         <v>11.684614</v>
       </c>
       <c r="AV22" s="1">
-        <v>1256.190000</v>
+        <v>1256.19</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.444000</v>
+        <v>-121.444</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>42075.612932</v>
+        <v>42075.612932000004</v>
       </c>
       <c r="AZ22" s="1">
-        <v>11.687670</v>
+        <v>11.687670000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1264.680000</v>
+        <v>1264.68</v>
       </c>
       <c r="BB22" s="1">
-        <v>-139.159000</v>
+        <v>-139.15899999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>42086.295726</v>
+        <v>42086.295725999997</v>
       </c>
       <c r="BE22" s="1">
         <v>11.690638</v>
       </c>
       <c r="BF22" s="1">
-        <v>1304.710000</v>
+        <v>1304.71</v>
       </c>
       <c r="BG22" s="1">
-        <v>-222.104000</v>
+        <v>-222.10400000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>42097.303966</v>
+        <v>42097.303965999999</v>
       </c>
       <c r="BJ22" s="1">
-        <v>11.693696</v>
+        <v>11.693695999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1374.260000</v>
+        <v>1374.26</v>
       </c>
       <c r="BL22" s="1">
-        <v>-360.812000</v>
+        <v>-360.81200000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>42107.898976</v>
+        <v>42107.898975999997</v>
       </c>
       <c r="BO22" s="1">
-        <v>11.696639</v>
+        <v>11.696638999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1488.820000</v>
+        <v>1488.82</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-587.380000</v>
+        <v>-587.38</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>42118.485090</v>
+        <v>42118.485090000002</v>
       </c>
       <c r="BT22" s="1">
         <v>11.699579</v>
       </c>
       <c r="BU22" s="1">
-        <v>1621.960000</v>
+        <v>1621.96</v>
       </c>
       <c r="BV22" s="1">
-        <v>-843.573000</v>
+        <v>-843.57299999999998</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>42129.308788</v>
+        <v>42129.308788000002</v>
       </c>
       <c r="BY22" s="1">
         <v>11.702586</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1775.520000</v>
+        <v>1775.52</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1123.250000</v>
+        <v>-1123.25</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>42142.271235</v>
       </c>
       <c r="CD22" s="1">
-        <v>11.706186</v>
+        <v>11.706186000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>2198.750000</v>
+        <v>2198.75</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1802.600000</v>
+        <v>-1802.6</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>41969.374810</v>
+        <v>41969.374810000001</v>
       </c>
       <c r="B23" s="1">
-        <v>11.658160</v>
+        <v>11.658160000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>1158.020000</v>
+        <v>1158.02</v>
       </c>
       <c r="D23" s="1">
-        <v>-242.609000</v>
+        <v>-242.60900000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>41979.840887</v>
+        <v>41979.840886999998</v>
       </c>
       <c r="G23" s="1">
-        <v>11.661067</v>
+        <v>11.661066999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>1177.200000</v>
+        <v>1177.2</v>
       </c>
       <c r="I23" s="1">
-        <v>-204.551000</v>
+        <v>-204.55099999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>41990.356556</v>
+        <v>41990.356555999999</v>
       </c>
       <c r="L23" s="1">
         <v>11.663988</v>
       </c>
       <c r="M23" s="1">
-        <v>1202.330000</v>
+        <v>1202.33</v>
       </c>
       <c r="N23" s="1">
-        <v>-144.037000</v>
+        <v>-144.03700000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>42000.855376</v>
       </c>
       <c r="Q23" s="1">
-        <v>11.666904</v>
+        <v>11.666904000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>1209.900000</v>
+        <v>1209.9000000000001</v>
       </c>
       <c r="S23" s="1">
-        <v>-124.004000</v>
+        <v>-124.004</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>42011.653777</v>
       </c>
       <c r="V23" s="1">
-        <v>11.669904</v>
+        <v>11.669904000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>1217.470000</v>
+        <v>1217.47</v>
       </c>
       <c r="X23" s="1">
-        <v>-104.882000</v>
+        <v>-104.88200000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>42022.194788</v>
+        <v>42022.194788000001</v>
       </c>
       <c r="AA23" s="1">
         <v>11.672832</v>
       </c>
       <c r="AB23" s="1">
-        <v>1225.600000</v>
+        <v>1225.5999999999999</v>
       </c>
       <c r="AC23" s="1">
-        <v>-89.545300</v>
+        <v>-89.545299999999997</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>42032.709976</v>
+        <v>42032.709975999998</v>
       </c>
       <c r="AF23" s="1">
         <v>11.675753</v>
       </c>
       <c r="AG23" s="1">
-        <v>1230.600000</v>
+        <v>1230.5999999999999</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.699300</v>
+        <v>-85.699299999999994</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>42043.258389</v>
+        <v>42043.258389000002</v>
       </c>
       <c r="AK23" s="1">
-        <v>11.678683</v>
+        <v>11.678682999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>1238.030000</v>
+        <v>1238.03</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.596600</v>
+        <v>-89.596599999999995</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>42054.486822</v>
+        <v>42054.486821999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>11.681802</v>
+        <v>11.681801999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1246.170000</v>
+        <v>1246.17</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.821000</v>
+        <v>-101.821</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>42065.293626</v>
+        <v>42065.293625999999</v>
       </c>
       <c r="AU23" s="1">
         <v>11.684804</v>
       </c>
       <c r="AV23" s="1">
-        <v>1256.220000</v>
+        <v>1256.22</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.428000</v>
+        <v>-121.428</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>42076.017130</v>
+        <v>42076.01713</v>
       </c>
       <c r="AZ23" s="1">
         <v>11.687783</v>
       </c>
       <c r="BA23" s="1">
-        <v>1264.680000</v>
+        <v>1264.68</v>
       </c>
       <c r="BB23" s="1">
-        <v>-139.129000</v>
+        <v>-139.12899999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>42086.658301</v>
+        <v>42086.658301000003</v>
       </c>
       <c r="BE23" s="1">
         <v>11.690738</v>
       </c>
       <c r="BF23" s="1">
-        <v>1304.720000</v>
+        <v>1304.72</v>
       </c>
       <c r="BG23" s="1">
-        <v>-222.113000</v>
+        <v>-222.113</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>42097.679438</v>
+        <v>42097.679437999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>11.693800</v>
+        <v>11.6938</v>
       </c>
       <c r="BK23" s="1">
-        <v>1374.250000</v>
+        <v>1374.25</v>
       </c>
       <c r="BL23" s="1">
-        <v>-360.784000</v>
+        <v>-360.78399999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>42108.298753</v>
+        <v>42108.298753000003</v>
       </c>
       <c r="BO23" s="1">
-        <v>11.696750</v>
+        <v>11.69675</v>
       </c>
       <c r="BP23" s="1">
-        <v>1488.840000</v>
+        <v>1488.84</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-587.409000</v>
+        <v>-587.40899999999999</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>42118.920082</v>
+        <v>42118.920081999997</v>
       </c>
       <c r="BT23" s="1">
-        <v>11.699700</v>
+        <v>11.6997</v>
       </c>
       <c r="BU23" s="1">
-        <v>1621.980000</v>
+        <v>1621.98</v>
       </c>
       <c r="BV23" s="1">
-        <v>-843.457000</v>
+        <v>-843.45699999999999</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>42129.755683</v>
+        <v>42129.755683000003</v>
       </c>
       <c r="BY23" s="1">
-        <v>11.702710</v>
+        <v>11.70271</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1775.290000</v>
+        <v>1775.29</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1123.270000</v>
+        <v>-1123.27</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>42142.788564</v>
+        <v>42142.788564000002</v>
       </c>
       <c r="CD23" s="1">
-        <v>11.706330</v>
+        <v>11.706329999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>2198.620000</v>
+        <v>2198.62</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1802.010000</v>
+        <v>-1802.01</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>41969.710620</v>
+        <v>41969.710619999998</v>
       </c>
       <c r="B24" s="1">
         <v>11.658253</v>
       </c>
       <c r="C24" s="1">
-        <v>1158.130000</v>
+        <v>1158.1300000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-242.855000</v>
+        <v>-242.85499999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>41980.180671</v>
+        <v>41980.180671000002</v>
       </c>
       <c r="G24" s="1">
         <v>11.661161</v>
       </c>
       <c r="H24" s="1">
-        <v>1176.970000</v>
+        <v>1176.97</v>
       </c>
       <c r="I24" s="1">
-        <v>-205.684000</v>
+        <v>-205.684</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>41991.050991</v>
+        <v>41991.050990999996</v>
       </c>
       <c r="L24" s="1">
-        <v>11.664181</v>
+        <v>11.664180999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>1202.420000</v>
+        <v>1202.42</v>
       </c>
       <c r="N24" s="1">
-        <v>-144.118000</v>
+        <v>-144.11799999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>42001.553741</v>
+        <v>42001.553741000003</v>
       </c>
       <c r="Q24" s="1">
-        <v>11.667098</v>
+        <v>11.667097999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1209.890000</v>
+        <v>1209.8900000000001</v>
       </c>
       <c r="S24" s="1">
-        <v>-124.011000</v>
+        <v>-124.011</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>42011.997503</v>
+        <v>42011.997502999999</v>
       </c>
       <c r="V24" s="1">
-        <v>11.669999</v>
+        <v>11.669999000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1217.560000</v>
+        <v>1217.56</v>
       </c>
       <c r="X24" s="1">
-        <v>-104.994000</v>
+        <v>-104.994</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>42022.543442</v>
+        <v>42022.543442000002</v>
       </c>
       <c r="AA24" s="1">
         <v>11.672929</v>
       </c>
       <c r="AB24" s="1">
-        <v>1225.570000</v>
+        <v>1225.57</v>
       </c>
       <c r="AC24" s="1">
-        <v>-89.616800</v>
+        <v>-89.616799999999998</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>42033.060648</v>
+        <v>42033.060647999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>11.675850</v>
+        <v>11.675850000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1230.600000</v>
+        <v>1230.5999999999999</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.758100</v>
+        <v>-85.758099999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>42043.922534</v>
+        <v>42043.922533999998</v>
       </c>
       <c r="AK24" s="1">
         <v>11.678867</v>
       </c>
       <c r="AL24" s="1">
-        <v>1238.050000</v>
+        <v>1238.05</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.587900</v>
+        <v>-89.587900000000005</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>42054.920790</v>
+        <v>42054.920789999996</v>
       </c>
       <c r="AP24" s="1">
         <v>11.681922</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1246.170000</v>
+        <v>1246.17</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.817000</v>
+        <v>-101.81699999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>42065.733578</v>
+        <v>42065.733577999999</v>
       </c>
       <c r="AU24" s="1">
-        <v>11.684926</v>
+        <v>11.684926000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1256.230000</v>
+        <v>1256.23</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.419000</v>
+        <v>-121.419</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>42076.403513</v>
+        <v>42076.403512999997</v>
       </c>
       <c r="AZ24" s="1">
-        <v>11.687890</v>
+        <v>11.687889999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1264.660000</v>
+        <v>1264.6600000000001</v>
       </c>
       <c r="BB24" s="1">
-        <v>-139.123000</v>
+        <v>-139.12299999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>42087.018892</v>
@@ -6300,43 +6716,43 @@
         <v>11.690839</v>
       </c>
       <c r="BF24" s="1">
-        <v>1304.760000</v>
+        <v>1304.76</v>
       </c>
       <c r="BG24" s="1">
-        <v>-222.127000</v>
+        <v>-222.12700000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>42098.053423</v>
+        <v>42098.053422999998</v>
       </c>
       <c r="BJ24" s="1">
         <v>11.693904</v>
       </c>
       <c r="BK24" s="1">
-        <v>1374.270000</v>
+        <v>1374.27</v>
       </c>
       <c r="BL24" s="1">
-        <v>-360.773000</v>
+        <v>-360.77300000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>42108.735727</v>
+        <v>42108.735726999999</v>
       </c>
       <c r="BO24" s="1">
         <v>11.696871</v>
       </c>
       <c r="BP24" s="1">
-        <v>1488.810000</v>
+        <v>1488.81</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-587.439000</v>
+        <v>-587.43899999999996</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>42119.346674</v>
@@ -6345,270 +6761,270 @@
         <v>11.699819</v>
       </c>
       <c r="BU24" s="1">
-        <v>1621.920000</v>
+        <v>1621.92</v>
       </c>
       <c r="BV24" s="1">
-        <v>-843.582000</v>
+        <v>-843.58199999999999</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>42130.177779</v>
+        <v>42130.177778999998</v>
       </c>
       <c r="BY24" s="1">
-        <v>11.702827</v>
+        <v>11.702826999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1775.360000</v>
+        <v>1775.36</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1123.410000</v>
+        <v>-1123.4100000000001</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>42143.343635</v>
+        <v>42143.343634999997</v>
       </c>
       <c r="CD24" s="1">
         <v>11.706484</v>
       </c>
       <c r="CE24" s="1">
-        <v>2200.140000</v>
+        <v>2200.14</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1800.660000</v>
+        <v>-1800.66</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>41970.485333</v>
+        <v>41970.485332999997</v>
       </c>
       <c r="B25" s="1">
-        <v>11.658468</v>
+        <v>11.658467999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>1158.110000</v>
+        <v>1158.1099999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-242.443000</v>
+        <v>-242.44300000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>41980.874807</v>
       </c>
       <c r="G25" s="1">
-        <v>11.661354</v>
+        <v>11.661353999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1176.790000</v>
+        <v>1176.79</v>
       </c>
       <c r="I25" s="1">
-        <v>-203.769000</v>
+        <v>-203.76900000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>41991.403114</v>
+        <v>41991.403114000001</v>
       </c>
       <c r="L25" s="1">
-        <v>11.664279</v>
+        <v>11.664279000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1202.520000</v>
+        <v>1202.52</v>
       </c>
       <c r="N25" s="1">
-        <v>-144.008000</v>
+        <v>-144.00800000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>42001.903917</v>
+        <v>42001.903917000003</v>
       </c>
       <c r="Q25" s="1">
-        <v>11.667196</v>
+        <v>11.667196000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1209.880000</v>
+        <v>1209.8800000000001</v>
       </c>
       <c r="S25" s="1">
-        <v>-123.933000</v>
+        <v>-123.93300000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>42012.342751</v>
+        <v>42012.342750999996</v>
       </c>
       <c r="V25" s="1">
         <v>11.670095</v>
       </c>
       <c r="W25" s="1">
-        <v>1217.380000</v>
+        <v>1217.3800000000001</v>
       </c>
       <c r="X25" s="1">
-        <v>-105.114000</v>
+        <v>-105.114</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>42023.209074</v>
+        <v>42023.209073999999</v>
       </c>
       <c r="AA25" s="1">
         <v>11.673114</v>
       </c>
       <c r="AB25" s="1">
-        <v>1225.580000</v>
+        <v>1225.58</v>
       </c>
       <c r="AC25" s="1">
-        <v>-89.566800</v>
+        <v>-89.566800000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>42033.719918</v>
+        <v>42033.719918000003</v>
       </c>
       <c r="AF25" s="1">
         <v>11.676033</v>
       </c>
       <c r="AG25" s="1">
-        <v>1230.590000</v>
+        <v>1230.5899999999999</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.747200</v>
+        <v>-85.747200000000007</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>42044.306412</v>
+        <v>42044.306411999998</v>
       </c>
       <c r="AK25" s="1">
         <v>11.678974</v>
       </c>
       <c r="AL25" s="1">
-        <v>1238.040000</v>
+        <v>1238.04</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.577000</v>
+        <v>-89.576999999999998</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>42055.282902</v>
+        <v>42055.282901999999</v>
       </c>
       <c r="AP25" s="1">
-        <v>11.682023</v>
+        <v>11.682022999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1246.180000</v>
+        <v>1246.18</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.796000</v>
+        <v>-101.79600000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>42066.096151</v>
+        <v>42066.096150999998</v>
       </c>
       <c r="AU25" s="1">
         <v>11.685027</v>
       </c>
       <c r="AV25" s="1">
-        <v>1256.210000</v>
+        <v>1256.21</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.403000</v>
+        <v>-121.40300000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>42076.766091</v>
+        <v>42076.766090999998</v>
       </c>
       <c r="AZ25" s="1">
         <v>11.687991</v>
       </c>
       <c r="BA25" s="1">
-        <v>1264.680000</v>
+        <v>1264.68</v>
       </c>
       <c r="BB25" s="1">
-        <v>-139.127000</v>
+        <v>-139.12700000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>42087.455371</v>
+        <v>42087.455370999996</v>
       </c>
       <c r="BE25" s="1">
-        <v>11.690960</v>
+        <v>11.69096</v>
       </c>
       <c r="BF25" s="1">
-        <v>1304.730000</v>
+        <v>1304.73</v>
       </c>
       <c r="BG25" s="1">
-        <v>-222.116000</v>
+        <v>-222.11600000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>42098.488908</v>
+        <v>42098.488907999999</v>
       </c>
       <c r="BJ25" s="1">
         <v>11.694025</v>
       </c>
       <c r="BK25" s="1">
-        <v>1374.240000</v>
+        <v>1374.24</v>
       </c>
       <c r="BL25" s="1">
-        <v>-360.743000</v>
+        <v>-360.74299999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>42109.114175</v>
+        <v>42109.114175000002</v>
       </c>
       <c r="BO25" s="1">
-        <v>11.696976</v>
+        <v>11.696975999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1488.840000</v>
+        <v>1488.84</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-587.400000</v>
+        <v>-587.4</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>42119.757330</v>
+        <v>42119.75733</v>
       </c>
       <c r="BT25" s="1">
         <v>11.699933</v>
       </c>
       <c r="BU25" s="1">
-        <v>1621.880000</v>
+        <v>1621.88</v>
       </c>
       <c r="BV25" s="1">
-        <v>-843.440000</v>
+        <v>-843.44</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>42130.599874</v>
@@ -6617,31 +7033,31 @@
         <v>11.702944</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1775.340000</v>
+        <v>1775.34</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1123.190000</v>
+        <v>-1123.19</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>42143.873312</v>
+        <v>42143.873312000003</v>
       </c>
       <c r="CD25" s="1">
         <v>11.706631</v>
       </c>
       <c r="CE25" s="1">
-        <v>2198.860000</v>
+        <v>2198.86</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1802.200000</v>
+        <v>-1802.2</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>41970.755157</v>
       </c>
@@ -6649,255 +7065,256 @@
         <v>11.658543</v>
       </c>
       <c r="C26" s="1">
-        <v>1158.360000</v>
+        <v>1158.3599999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-242.384000</v>
+        <v>-242.38399999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>41981.216776</v>
+        <v>41981.216776000001</v>
       </c>
       <c r="G26" s="1">
-        <v>11.661449</v>
+        <v>11.661448999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>1176.880000</v>
+        <v>1176.8800000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>-205.091000</v>
+        <v>-205.09100000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>41991.748331</v>
+        <v>41991.748331000003</v>
       </c>
       <c r="L26" s="1">
         <v>11.664375</v>
       </c>
       <c r="M26" s="1">
-        <v>1202.400000</v>
+        <v>1202.4000000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-143.918000</v>
+        <v>-143.91800000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>42002.250124</v>
+        <v>42002.250123999998</v>
       </c>
       <c r="Q26" s="1">
         <v>11.667292</v>
       </c>
       <c r="R26" s="1">
-        <v>1209.920000</v>
+        <v>1209.92</v>
       </c>
       <c r="S26" s="1">
-        <v>-123.983000</v>
+        <v>-123.983</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>42013.017807</v>
+        <v>42013.017806999997</v>
       </c>
       <c r="V26" s="1">
         <v>11.670283</v>
       </c>
       <c r="W26" s="1">
-        <v>1217.380000</v>
+        <v>1217.3800000000001</v>
       </c>
       <c r="X26" s="1">
-        <v>-104.881000</v>
+        <v>-104.881</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>42023.593504</v>
+        <v>42023.593503999997</v>
       </c>
       <c r="AA26" s="1">
-        <v>11.673220</v>
+        <v>11.673220000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>1225.560000</v>
+        <v>1225.56</v>
       </c>
       <c r="AC26" s="1">
-        <v>-89.575300</v>
+        <v>-89.575299999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>42034.087362</v>
+        <v>42034.087361999998</v>
       </c>
       <c r="AF26" s="1">
         <v>11.676135</v>
       </c>
       <c r="AG26" s="1">
-        <v>1230.610000</v>
+        <v>1230.6099999999999</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.706700</v>
+        <v>-85.706699999999998</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>42044.657571</v>
+        <v>42044.657571000003</v>
       </c>
       <c r="AK26" s="1">
         <v>11.679072</v>
       </c>
       <c r="AL26" s="1">
-        <v>1238.040000</v>
+        <v>1238.04</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.563900</v>
+        <v>-89.563900000000004</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>42055.642004</v>
+        <v>42055.642004000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>11.682123</v>
+        <v>11.682123000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1246.160000</v>
+        <v>1246.1600000000001</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.823000</v>
+        <v>-101.82299999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>42066.461737</v>
+        <v>42066.461736999998</v>
       </c>
       <c r="AU26" s="1">
-        <v>11.685128</v>
+        <v>11.685128000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>1256.190000</v>
+        <v>1256.19</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.413000</v>
+        <v>-121.413</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>42077.195163</v>
+        <v>42077.195162999997</v>
       </c>
       <c r="AZ26" s="1">
-        <v>11.688110</v>
+        <v>11.68811</v>
       </c>
       <c r="BA26" s="1">
-        <v>1264.680000</v>
+        <v>1264.68</v>
       </c>
       <c r="BB26" s="1">
-        <v>-139.114000</v>
+        <v>-139.114</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>42087.742060</v>
+        <v>42087.742059999997</v>
       </c>
       <c r="BE26" s="1">
         <v>11.691039</v>
       </c>
       <c r="BF26" s="1">
-        <v>1304.710000</v>
+        <v>1304.71</v>
       </c>
       <c r="BG26" s="1">
-        <v>-222.140000</v>
+        <v>-222.14</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>42098.826685</v>
       </c>
       <c r="BJ26" s="1">
-        <v>11.694119</v>
+        <v>11.694119000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1374.290000</v>
+        <v>1374.29</v>
       </c>
       <c r="BL26" s="1">
-        <v>-360.831000</v>
+        <v>-360.83100000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>42109.536800</v>
+        <v>42109.536800000002</v>
       </c>
       <c r="BO26" s="1">
         <v>11.697094</v>
       </c>
       <c r="BP26" s="1">
-        <v>1488.890000</v>
+        <v>1488.89</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-587.395000</v>
+        <v>-587.39499999999998</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>42120.190866</v>
+        <v>42120.190865999997</v>
       </c>
       <c r="BT26" s="1">
         <v>11.700053</v>
       </c>
       <c r="BU26" s="1">
-        <v>1621.820000</v>
+        <v>1621.82</v>
       </c>
       <c r="BV26" s="1">
-        <v>-843.542000</v>
+        <v>-843.54200000000003</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>42131.051730</v>
+        <v>42131.051729999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>11.703070</v>
+        <v>11.70307</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1775.430000</v>
+        <v>1775.43</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1123.230000</v>
+        <v>-1123.23</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>42144.391633</v>
+        <v>42144.391632999999</v>
       </c>
       <c r="CD26" s="1">
         <v>11.706775</v>
       </c>
       <c r="CE26" s="1">
-        <v>2200.200000</v>
+        <v>2200.1999999999998</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1803.200000</v>
+        <v>-1803.2</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>